--- a/Class Records/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2B.xlsx
+++ b/Class Records/2T1617CR/2T1617 - CITCS-ITE3-CITCS 2B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\CR-2T 1617\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\GIT\FileOrg\Class Records\2T1617CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2953,10 +2953,126 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2968,10 +3084,6 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="6" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3035,10 +3147,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3046,222 +3154,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3295,74 +3193,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3391,8 +3221,76 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3415,55 +3313,186 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3479,61 +3508,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3556,126 +3598,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3706,37 +3634,109 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="69" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3753,22 +3753,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3795,6 +3779,22 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="59" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -7984,39 +7984,39 @@
   <sheetData>
     <row r="1" spans="2:18" s="24" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:18" ht="13.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="179"/>
-      <c r="P2" s="210" t="s">
+      <c r="B2" s="207"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="P2" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
     </row>
     <row r="3" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
       <c r="P3" s="27" t="s">
         <v>24</v>
       </c>
@@ -8028,19 +8028,19 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="212"/>
       <c r="P4" s="27">
         <v>0</v>
       </c>
@@ -8052,19 +8052,19 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="182"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="212"/>
       <c r="P5" s="27">
         <v>7</v>
       </c>
@@ -8076,19 +8076,19 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="182"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="212"/>
       <c r="P6" s="27">
         <v>19</v>
       </c>
@@ -8100,19 +8100,19 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="182"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
       <c r="P7" s="27">
         <v>31</v>
       </c>
@@ -8124,19 +8124,19 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="182"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="212"/>
       <c r="P8" s="27">
         <v>43</v>
       </c>
@@ -8148,19 +8148,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="183"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="185"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="215"/>
       <c r="P9" s="27">
         <v>50</v>
       </c>
@@ -8173,19 +8173,19 @@
     </row>
     <row r="10" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="29"/>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="218"/>
       <c r="N10" s="30"/>
       <c r="P10" s="27">
         <v>51.5</v>
@@ -8199,17 +8199,17 @@
     </row>
     <row r="11" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="31"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="171"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="202"/>
       <c r="N11" s="32"/>
       <c r="P11" s="27">
         <v>53</v>
@@ -8224,21 +8224,21 @@
     <row r="12" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="31"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="193" t="s">
+      <c r="D12" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="194"/>
+      <c r="E12" s="223"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="189" t="s">
+      <c r="G12" s="219" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="192"/>
+      <c r="H12" s="222"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="189" t="s">
+      <c r="J12" s="219" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="221"/>
       <c r="M12" s="14"/>
       <c r="N12" s="32"/>
       <c r="P12" s="27">
@@ -8254,21 +8254,21 @@
     <row r="13" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="31"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="174" t="s">
+      <c r="D13" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="214"/>
+      <c r="E13" s="174"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="174" t="s">
+      <c r="G13" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="174"/>
+      <c r="H13" s="173"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="174" t="s">
+      <c r="J13" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
       <c r="M13" s="14"/>
       <c r="N13" s="32"/>
       <c r="P13" s="27">
@@ -8284,15 +8284,15 @@
     <row r="14" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="31"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="192"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="189" t="s">
+      <c r="G14" s="219" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="192"/>
+      <c r="H14" s="222"/>
       <c r="I14" s="5"/>
       <c r="J14" s="167" t="s">
         <v>160</v>
@@ -8316,21 +8316,21 @@
     <row r="15" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="31"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="199"/>
+      <c r="E15" s="185"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="174" t="s">
+      <c r="G15" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="199"/>
+      <c r="H15" s="185"/>
       <c r="I15" s="5"/>
       <c r="J15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="195"/>
-      <c r="L15" s="170"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="186"/>
       <c r="M15" s="14"/>
       <c r="N15" s="32"/>
       <c r="P15" s="27">
@@ -8346,21 +8346,21 @@
     <row r="16" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="31"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="193" t="s">
+      <c r="D16" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="200"/>
+      <c r="E16" s="188"/>
       <c r="F16" s="4"/>
       <c r="G16" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="215" t="s">
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="216"/>
-      <c r="L16" s="217"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="177"/>
       <c r="M16" s="14"/>
       <c r="N16" s="32"/>
       <c r="P16" s="27">
@@ -8376,21 +8376,21 @@
     <row r="17" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="174" t="s">
+      <c r="D17" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="209"/>
+      <c r="E17" s="197"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="174" t="s">
+      <c r="J17" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
       <c r="M17" s="14"/>
       <c r="N17" s="32"/>
       <c r="P17" s="27">
@@ -8406,12 +8406,12 @@
     <row r="18" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -8430,16 +8430,16 @@
     <row r="19" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="206" t="s">
+      <c r="D19" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="208"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="206" t="s">
+      <c r="G19" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
       <c r="J19" s="43" t="str">
         <f>IF(J23="","Prelim","ERROR")</f>
         <v>Prelim</v>
@@ -8467,14 +8467,14 @@
     <row r="20" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="31"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="172">
+      <c r="D20" s="203">
         <v>40575</v>
       </c>
-      <c r="E20" s="173"/>
+      <c r="E20" s="204"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="200"/>
       <c r="J20" s="36">
         <v>0.33</v>
       </c>
@@ -8499,16 +8499,16 @@
     <row r="21" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="31"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="174" t="s">
+      <c r="D21" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="214"/>
+      <c r="E21" s="174"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="196" t="s">
+      <c r="G21" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="200"/>
       <c r="J21" s="36">
         <v>0.33</v>
       </c>
@@ -8533,16 +8533,16 @@
     <row r="22" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="31"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="220">
+      <c r="D22" s="180">
         <v>40603</v>
       </c>
-      <c r="E22" s="221"/>
+      <c r="E22" s="181"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="175" t="s">
+      <c r="G22" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
       <c r="J22" s="38">
         <v>0.34</v>
       </c>
@@ -8567,14 +8567,14 @@
     <row r="23" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="31"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="214"/>
+      <c r="E23" s="174"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
       <c r="J23" s="10" t="str">
         <f>IF((SUM(J20:J22))=1,"",(SUM(J20:J22))-1)</f>
         <v/>
@@ -8602,16 +8602,16 @@
     <row r="24" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="31"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="220">
+      <c r="D24" s="180">
         <v>40634</v>
       </c>
-      <c r="E24" s="224"/>
+      <c r="E24" s="184"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="206" t="s">
+      <c r="G24" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
       <c r="J24" s="44" t="s">
         <v>7</v>
       </c>
@@ -8636,16 +8636,16 @@
     <row r="25" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="214"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="201" t="s">
+      <c r="G25" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
       <c r="J25" s="40">
         <v>0.5</v>
       </c>
@@ -8668,14 +8668,14 @@
     <row r="26" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="31"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="170"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="186"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="203" t="s">
+      <c r="G26" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="204"/>
-      <c r="I26" s="205"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="193"/>
       <c r="J26" s="41">
         <v>0.25</v>
       </c>
@@ -8699,15 +8699,15 @@
     </row>
     <row r="27" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="31"/>
-      <c r="C27" s="212" t="s">
+      <c r="C27" s="171" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -11049,6 +11049,30 @@
   </sheetData>
   <sheetProtection password="D04D" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B2:N9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="C27:E27"/>
@@ -11065,30 +11089,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B2:N9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11991,273 +11991,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="253" t="str">
+      <c r="A1" s="227" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D12,"  ",'INITIAL INPUT'!G12)</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="259" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="259" t="s">
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="259" t="s">
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="260"/>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="261"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="235"/>
       <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="256"/>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="250" t="str">
+      <c r="A2" s="230"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="278" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v/>
       </c>
-      <c r="F2" s="228" t="str">
+      <c r="F2" s="271" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="238" t="s">
+      <c r="H2" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="247" t="str">
+      <c r="I2" s="275" t="str">
         <f>IF('INITIAL INPUT'!J23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J2" s="250" t="str">
+      <c r="J2" s="278" t="str">
         <f>E2</f>
         <v/>
       </c>
-      <c r="K2" s="228" t="str">
+      <c r="K2" s="271" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="L2" s="231" t="str">
+      <c r="L2" s="266" t="str">
         <f>G2</f>
         <v>EXAM</v>
       </c>
-      <c r="M2" s="264" t="s">
+      <c r="M2" s="267" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="238" t="s">
+      <c r="N2" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="247" t="str">
+      <c r="O2" s="275" t="str">
         <f>IF('INITIAL INPUT'!K23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P2" s="250" t="str">
+      <c r="P2" s="278" t="str">
         <f>E2</f>
         <v/>
       </c>
-      <c r="Q2" s="228" t="str">
+      <c r="Q2" s="271" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="231" t="s">
+      <c r="R2" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="264" t="s">
+      <c r="S2" s="267" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="238" t="s">
+      <c r="T2" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="247" t="str">
+      <c r="U2" s="275" t="str">
         <f>IF('INITIAL INPUT'!L23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V2" s="267" t="str">
+      <c r="V2" s="281" t="str">
         <f>IF(U2="INVALID GRADE","INVALID FINAL GRADE","FINAL GRADE (%)")</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W2" s="225" t="s">
+      <c r="W2" s="293" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="279" t="str">
+      <c r="A3" s="236" t="str">
         <f>'INITIAL INPUT'!J12</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="268"/>
-      <c r="W3" s="226"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="267"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="274"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="294"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="282" t="str">
+      <c r="A4" s="239" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D14,"  ",'INITIAL INPUT'!G14)</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="284"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="241"/>
       <c r="D4" s="103" t="str">
         <f>'INITIAL INPUT'!J14</f>
         <v>S312</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="251"/>
-      <c r="Q4" s="229"/>
-      <c r="R4" s="232"/>
-      <c r="S4" s="264"/>
-      <c r="T4" s="246"/>
-      <c r="U4" s="248"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="226"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="279"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="244"/>
+      <c r="S4" s="267"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="276"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="294"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="282" t="str">
+      <c r="A5" s="239" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester ","SY ",'INITIAL INPUT'!D16)</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="283"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="237">
+      <c r="B5" s="240"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="284">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="H5" s="246"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="237">
+      <c r="H5" s="274"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="284">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="M5" s="264"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="248"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="237">
+      <c r="M5" s="267"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="279"/>
+      <c r="Q5" s="272"/>
+      <c r="R5" s="284">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="S5" s="264"/>
-      <c r="T5" s="246"/>
-      <c r="U5" s="248"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="226"/>
+      <c r="S5" s="267"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="276"/>
+      <c r="V5" s="282"/>
+      <c r="W5" s="294"/>
     </row>
     <row r="6" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="270" t="str">
+      <c r="A6" s="252" t="str">
         <f>CONCATENATE("Inst/Prof:", 'INITIAL INPUT'!J16)</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="271"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="248"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
-      <c r="M6" s="264"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="229"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="246"/>
-      <c r="U6" s="248"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="226"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
+      <c r="M6" s="267"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="276"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="272"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="274"/>
+      <c r="U6" s="276"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="294"/>
     </row>
     <row r="7" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="273" t="s">
+      <c r="A7" s="255" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="274"/>
-      <c r="C7" s="277" t="s">
+      <c r="B7" s="256"/>
+      <c r="C7" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="262" t="s">
+      <c r="D7" s="225" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="248"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="248"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="230"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="248"/>
-      <c r="V7" s="268"/>
-      <c r="W7" s="226"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="280"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="273"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="276"/>
+      <c r="P7" s="280"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="273"/>
+      <c r="S7" s="268"/>
+      <c r="T7" s="274"/>
+      <c r="U7" s="276"/>
+      <c r="V7" s="282"/>
+      <c r="W7" s="294"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="275"/>
-      <c r="B8" s="276"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="263"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="258"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="226"/>
       <c r="E8" s="76">
         <f>'INITIAL INPUT'!J20</f>
         <v>0.33</v>
@@ -12270,8 +12270,8 @@
         <f>'INITIAL INPUT'!J22</f>
         <v>0.34</v>
       </c>
-      <c r="H8" s="240"/>
-      <c r="I8" s="249"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="277"/>
       <c r="J8" s="76">
         <f>'INITIAL INPUT'!K20</f>
         <v>0.33</v>
@@ -12284,9 +12284,9 @@
         <f>'INITIAL INPUT'!K22</f>
         <v>0.34</v>
       </c>
-      <c r="M8" s="266"/>
-      <c r="N8" s="240"/>
-      <c r="O8" s="249"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="248"/>
+      <c r="O8" s="277"/>
       <c r="P8" s="76">
         <f>'INITIAL INPUT'!L20</f>
         <v>0.33</v>
@@ -12299,11 +12299,11 @@
         <f>'INITIAL INPUT'!L22</f>
         <v>0.34</v>
       </c>
-      <c r="S8" s="266"/>
-      <c r="T8" s="240"/>
-      <c r="U8" s="249"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="227"/>
+      <c r="S8" s="269"/>
+      <c r="T8" s="248"/>
+      <c r="U8" s="277"/>
+      <c r="V8" s="283"/>
+      <c r="W8" s="295"/>
     </row>
     <row r="9" spans="1:24" s="89" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="F9" s="83">
         <f>IF(PRELIM!AB9="","",$F$8*PRELIM!AB9)</f>
-        <v>4.4423076923076925</v>
+        <v>23.480769230769234</v>
       </c>
       <c r="G9" s="83">
         <f>IF(PRELIM!AD9="","",$G$8*PRELIM!AD9)</f>
@@ -12335,11 +12335,11 @@
       </c>
       <c r="H9" s="84">
         <f t="shared" ref="H9:H40" si="0">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v>26.972307692307695</v>
+        <v>46.010769230769235</v>
       </c>
       <c r="I9" s="85">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J9" s="83" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -13828,7 +13828,7 @@
       </c>
       <c r="F25" s="83">
         <f>IF(PRELIM!AB25="","",$F$8*PRELIM!AB25)</f>
-        <v>4.6961538461538463</v>
+        <v>30.080769230769231</v>
       </c>
       <c r="G25" s="83">
         <f>IF(PRELIM!AD25="","",$G$8*PRELIM!AD25)</f>
@@ -13836,11 +13836,11 @@
       </c>
       <c r="H25" s="84">
         <f t="shared" si="0"/>
-        <v>26.456153846153846</v>
+        <v>51.840769230769233</v>
       </c>
       <c r="I25" s="85">
         <f>IF(H25="","",VLOOKUP(H25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J25" s="83" t="str">
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
@@ -13992,8 +13992,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="235" t="s">
+      <c r="X26" s="296"/>
+      <c r="Y26" s="286" t="s">
         <v>126</v>
       </c>
     </row>
@@ -14089,8 +14089,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X27" s="234"/>
-      <c r="Y27" s="236"/>
+      <c r="X27" s="297"/>
+      <c r="Y27" s="287"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -14184,8 +14184,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X28" s="234"/>
-      <c r="Y28" s="236"/>
+      <c r="X28" s="297"/>
+      <c r="Y28" s="287"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
@@ -14279,8 +14279,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X29" s="234"/>
-      <c r="Y29" s="236"/>
+      <c r="X29" s="297"/>
+      <c r="Y29" s="287"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
@@ -14374,8 +14374,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X30" s="234"/>
-      <c r="Y30" s="236"/>
+      <c r="X30" s="297"/>
+      <c r="Y30" s="287"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
@@ -14469,8 +14469,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X31" s="234"/>
-      <c r="Y31" s="236"/>
+      <c r="X31" s="297"/>
+      <c r="Y31" s="287"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
@@ -14564,8 +14564,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X32" s="234"/>
-      <c r="Y32" s="236"/>
+      <c r="X32" s="297"/>
+      <c r="Y32" s="287"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
@@ -14659,8 +14659,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X33" s="234"/>
-      <c r="Y33" s="236"/>
+      <c r="X33" s="297"/>
+      <c r="Y33" s="287"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
@@ -14754,8 +14754,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="236"/>
+      <c r="X34" s="297"/>
+      <c r="Y34" s="287"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
@@ -14849,8 +14849,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X35" s="234"/>
-      <c r="Y35" s="236"/>
+      <c r="X35" s="297"/>
+      <c r="Y35" s="287"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
@@ -14944,8 +14944,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X36" s="234"/>
-      <c r="Y36" s="236"/>
+      <c r="X36" s="297"/>
+      <c r="Y36" s="287"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
@@ -15039,8 +15039,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X37" s="234"/>
-      <c r="Y37" s="236"/>
+      <c r="X37" s="297"/>
+      <c r="Y37" s="287"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
@@ -15134,8 +15134,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X38" s="234"/>
-      <c r="Y38" s="236"/>
+      <c r="X38" s="297"/>
+      <c r="Y38" s="287"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
@@ -15229,8 +15229,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X39" s="234"/>
-      <c r="Y39" s="236"/>
+      <c r="X39" s="297"/>
+      <c r="Y39" s="287"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
@@ -15324,8 +15324,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X40" s="234"/>
-      <c r="Y40" s="236"/>
+      <c r="X40" s="297"/>
+      <c r="Y40" s="287"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
@@ -15340,301 +15340,301 @@
       <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="253" t="str">
+      <c r="A42" s="227" t="str">
         <f>A1</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B42" s="254"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="255"/>
-      <c r="E42" s="259" t="s">
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="260"/>
-      <c r="G42" s="260"/>
-      <c r="H42" s="260"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="259" t="s">
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="K42" s="260"/>
-      <c r="L42" s="260"/>
-      <c r="M42" s="260"/>
-      <c r="N42" s="260"/>
-      <c r="O42" s="261"/>
-      <c r="P42" s="259" t="s">
+      <c r="K42" s="234"/>
+      <c r="L42" s="234"/>
+      <c r="M42" s="234"/>
+      <c r="N42" s="234"/>
+      <c r="O42" s="235"/>
+      <c r="P42" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="Q42" s="260"/>
-      <c r="R42" s="260"/>
-      <c r="S42" s="260"/>
-      <c r="T42" s="260"/>
-      <c r="U42" s="260"/>
-      <c r="V42" s="286"/>
+      <c r="Q42" s="234"/>
+      <c r="R42" s="234"/>
+      <c r="S42" s="234"/>
+      <c r="T42" s="234"/>
+      <c r="U42" s="234"/>
+      <c r="V42" s="270"/>
       <c r="W42" s="72"/>
       <c r="X42" s="91"/>
     </row>
     <row r="43" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="256"/>
-      <c r="B43" s="257"/>
-      <c r="C43" s="257"/>
-      <c r="D43" s="258"/>
-      <c r="E43" s="287" t="str">
+      <c r="A43" s="230"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="261" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="290" t="str">
+      <c r="F43" s="264" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G43" s="231" t="s">
+      <c r="G43" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="H43" s="238" t="str">
+      <c r="H43" s="246" t="str">
         <f>H2</f>
         <v>SCORE</v>
       </c>
-      <c r="I43" s="294" t="str">
+      <c r="I43" s="249" t="str">
         <f>I2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J43" s="287" t="str">
+      <c r="J43" s="261" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="K43" s="290" t="str">
+      <c r="K43" s="264" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="L43" s="231" t="s">
+      <c r="L43" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="M43" s="264" t="str">
+      <c r="M43" s="267" t="str">
         <f>M2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="N43" s="238" t="str">
+      <c r="N43" s="246" t="str">
         <f>N2</f>
         <v>SCORE</v>
       </c>
-      <c r="O43" s="294" t="str">
+      <c r="O43" s="249" t="str">
         <f>O2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P43" s="287" t="str">
+      <c r="P43" s="261" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q43" s="290" t="str">
+      <c r="Q43" s="264" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="231" t="s">
+      <c r="R43" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="S43" s="264" t="str">
+      <c r="S43" s="267" t="str">
         <f>S2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="T43" s="238" t="str">
+      <c r="T43" s="246" t="str">
         <f>T2</f>
         <v>SCORE</v>
       </c>
-      <c r="U43" s="241" t="str">
+      <c r="U43" s="288" t="str">
         <f>U2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V43" s="244" t="str">
+      <c r="V43" s="291" t="str">
         <f>V2</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W43" s="225" t="s">
+      <c r="W43" s="293" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="279" t="str">
+      <c r="A44" s="236" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="280"/>
-      <c r="C44" s="280"/>
-      <c r="D44" s="281"/>
-      <c r="E44" s="288"/>
-      <c r="F44" s="291"/>
-      <c r="G44" s="232"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="295"/>
-      <c r="J44" s="288"/>
-      <c r="K44" s="291"/>
-      <c r="L44" s="232"/>
-      <c r="M44" s="264"/>
-      <c r="N44" s="239"/>
-      <c r="O44" s="295"/>
-      <c r="P44" s="288"/>
-      <c r="Q44" s="291"/>
-      <c r="R44" s="232"/>
-      <c r="S44" s="264"/>
-      <c r="T44" s="239"/>
-      <c r="U44" s="242"/>
-      <c r="V44" s="244"/>
-      <c r="W44" s="226"/>
+      <c r="B44" s="237"/>
+      <c r="C44" s="237"/>
+      <c r="D44" s="238"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="262"/>
+      <c r="K44" s="265"/>
+      <c r="L44" s="244"/>
+      <c r="M44" s="267"/>
+      <c r="N44" s="247"/>
+      <c r="O44" s="250"/>
+      <c r="P44" s="262"/>
+      <c r="Q44" s="265"/>
+      <c r="R44" s="244"/>
+      <c r="S44" s="267"/>
+      <c r="T44" s="247"/>
+      <c r="U44" s="289"/>
+      <c r="V44" s="291"/>
+      <c r="W44" s="294"/>
     </row>
     <row r="45" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="282" t="str">
+      <c r="A45" s="239" t="str">
         <f>A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="284"/>
+      <c r="B45" s="240"/>
+      <c r="C45" s="241"/>
       <c r="D45" s="75" t="str">
         <f>D4</f>
         <v>S312</v>
       </c>
-      <c r="E45" s="288"/>
-      <c r="F45" s="291"/>
-      <c r="G45" s="232"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="295"/>
-      <c r="J45" s="288"/>
-      <c r="K45" s="291"/>
-      <c r="L45" s="232"/>
-      <c r="M45" s="264"/>
-      <c r="N45" s="239"/>
-      <c r="O45" s="295"/>
-      <c r="P45" s="288"/>
-      <c r="Q45" s="291"/>
-      <c r="R45" s="232"/>
-      <c r="S45" s="264"/>
-      <c r="T45" s="239"/>
-      <c r="U45" s="242"/>
-      <c r="V45" s="244"/>
-      <c r="W45" s="226"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="265"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="247"/>
+      <c r="I45" s="250"/>
+      <c r="J45" s="262"/>
+      <c r="K45" s="265"/>
+      <c r="L45" s="244"/>
+      <c r="M45" s="267"/>
+      <c r="N45" s="247"/>
+      <c r="O45" s="250"/>
+      <c r="P45" s="262"/>
+      <c r="Q45" s="265"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="267"/>
+      <c r="T45" s="247"/>
+      <c r="U45" s="289"/>
+      <c r="V45" s="291"/>
+      <c r="W45" s="294"/>
     </row>
     <row r="46" spans="1:25" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="282" t="str">
+      <c r="A46" s="239" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="283"/>
-      <c r="C46" s="284"/>
-      <c r="D46" s="285"/>
-      <c r="E46" s="288"/>
-      <c r="F46" s="291"/>
-      <c r="G46" s="293">
+      <c r="B46" s="240"/>
+      <c r="C46" s="241"/>
+      <c r="D46" s="242"/>
+      <c r="E46" s="262"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="243">
         <f>G5</f>
         <v>40575</v>
       </c>
-      <c r="H46" s="239"/>
-      <c r="I46" s="295"/>
-      <c r="J46" s="288"/>
-      <c r="K46" s="291"/>
-      <c r="L46" s="293">
+      <c r="H46" s="247"/>
+      <c r="I46" s="250"/>
+      <c r="J46" s="262"/>
+      <c r="K46" s="265"/>
+      <c r="L46" s="243">
         <f>L5</f>
         <v>40603</v>
       </c>
-      <c r="M46" s="264"/>
-      <c r="N46" s="239"/>
-      <c r="O46" s="295"/>
-      <c r="P46" s="288"/>
-      <c r="Q46" s="291"/>
-      <c r="R46" s="293">
+      <c r="M46" s="267"/>
+      <c r="N46" s="247"/>
+      <c r="O46" s="250"/>
+      <c r="P46" s="262"/>
+      <c r="Q46" s="265"/>
+      <c r="R46" s="243">
         <f>R5</f>
         <v>40634</v>
       </c>
-      <c r="S46" s="264"/>
-      <c r="T46" s="239"/>
-      <c r="U46" s="242"/>
-      <c r="V46" s="244"/>
-      <c r="W46" s="226"/>
+      <c r="S46" s="267"/>
+      <c r="T46" s="247"/>
+      <c r="U46" s="289"/>
+      <c r="V46" s="291"/>
+      <c r="W46" s="294"/>
     </row>
     <row r="47" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="270" t="str">
+      <c r="A47" s="252" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="271"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="297"/>
-      <c r="E47" s="288"/>
-      <c r="F47" s="291"/>
-      <c r="G47" s="232"/>
-      <c r="H47" s="239"/>
-      <c r="I47" s="295"/>
-      <c r="J47" s="288"/>
-      <c r="K47" s="291"/>
-      <c r="L47" s="232"/>
-      <c r="M47" s="264"/>
-      <c r="N47" s="239"/>
-      <c r="O47" s="295"/>
-      <c r="P47" s="288"/>
-      <c r="Q47" s="291"/>
-      <c r="R47" s="232"/>
-      <c r="S47" s="264"/>
-      <c r="T47" s="239"/>
-      <c r="U47" s="242"/>
-      <c r="V47" s="244"/>
-      <c r="W47" s="226"/>
+      <c r="B47" s="253"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="254"/>
+      <c r="E47" s="262"/>
+      <c r="F47" s="265"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="247"/>
+      <c r="I47" s="250"/>
+      <c r="J47" s="262"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="244"/>
+      <c r="M47" s="267"/>
+      <c r="N47" s="247"/>
+      <c r="O47" s="250"/>
+      <c r="P47" s="262"/>
+      <c r="Q47" s="265"/>
+      <c r="R47" s="244"/>
+      <c r="S47" s="267"/>
+      <c r="T47" s="247"/>
+      <c r="U47" s="289"/>
+      <c r="V47" s="291"/>
+      <c r="W47" s="294"/>
     </row>
     <row r="48" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="273" t="str">
+      <c r="A48" s="255" t="str">
         <f>A7</f>
         <v>CLASS LIST</v>
       </c>
-      <c r="B48" s="274"/>
-      <c r="C48" s="277" t="str">
+      <c r="B48" s="256"/>
+      <c r="C48" s="259" t="str">
         <f>C7</f>
         <v>SEX</v>
       </c>
-      <c r="D48" s="262" t="str">
+      <c r="D48" s="225" t="str">
         <f>D7</f>
         <v>Course</v>
       </c>
-      <c r="E48" s="288"/>
-      <c r="F48" s="291"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="239"/>
-      <c r="I48" s="295"/>
-      <c r="J48" s="288"/>
-      <c r="K48" s="291"/>
-      <c r="L48" s="232"/>
-      <c r="M48" s="265"/>
-      <c r="N48" s="239"/>
-      <c r="O48" s="295"/>
-      <c r="P48" s="288"/>
-      <c r="Q48" s="291"/>
-      <c r="R48" s="232"/>
-      <c r="S48" s="265"/>
-      <c r="T48" s="239"/>
-      <c r="U48" s="242"/>
-      <c r="V48" s="244"/>
-      <c r="W48" s="226"/>
+      <c r="E48" s="262"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="244"/>
+      <c r="H48" s="247"/>
+      <c r="I48" s="250"/>
+      <c r="J48" s="262"/>
+      <c r="K48" s="265"/>
+      <c r="L48" s="244"/>
+      <c r="M48" s="268"/>
+      <c r="N48" s="247"/>
+      <c r="O48" s="250"/>
+      <c r="P48" s="262"/>
+      <c r="Q48" s="265"/>
+      <c r="R48" s="244"/>
+      <c r="S48" s="268"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="289"/>
+      <c r="V48" s="291"/>
+      <c r="W48" s="294"/>
       <c r="X48" s="91"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="275"/>
-      <c r="B49" s="276"/>
-      <c r="C49" s="278"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="289"/>
-      <c r="F49" s="292"/>
-      <c r="G49" s="292"/>
-      <c r="H49" s="240"/>
-      <c r="I49" s="296"/>
-      <c r="J49" s="289"/>
-      <c r="K49" s="292"/>
-      <c r="L49" s="292"/>
-      <c r="M49" s="266"/>
-      <c r="N49" s="240"/>
-      <c r="O49" s="296"/>
-      <c r="P49" s="289"/>
-      <c r="Q49" s="292"/>
-      <c r="R49" s="292"/>
-      <c r="S49" s="266"/>
-      <c r="T49" s="240"/>
-      <c r="U49" s="243"/>
-      <c r="V49" s="245"/>
-      <c r="W49" s="227"/>
+      <c r="A49" s="257"/>
+      <c r="B49" s="258"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="226"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="245"/>
+      <c r="H49" s="248"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="245"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="269"/>
+      <c r="N49" s="248"/>
+      <c r="O49" s="251"/>
+      <c r="P49" s="263"/>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="245"/>
+      <c r="S49" s="269"/>
+      <c r="T49" s="248"/>
+      <c r="U49" s="290"/>
+      <c r="V49" s="292"/>
+      <c r="W49" s="295"/>
       <c r="X49" s="91"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -17233,8 +17233,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X66" s="233"/>
-      <c r="Y66" s="235" t="s">
+      <c r="X66" s="296"/>
+      <c r="Y66" s="286" t="s">
         <v>126</v>
       </c>
     </row>
@@ -17330,8 +17330,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X67" s="234"/>
-      <c r="Y67" s="236"/>
+      <c r="X67" s="297"/>
+      <c r="Y67" s="287"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="90" t="s">
@@ -17425,8 +17425,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X68" s="234"/>
-      <c r="Y68" s="236"/>
+      <c r="X68" s="297"/>
+      <c r="Y68" s="287"/>
     </row>
     <row r="69" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
@@ -17520,8 +17520,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="236"/>
+      <c r="X69" s="297"/>
+      <c r="Y69" s="287"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
@@ -17615,8 +17615,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X70" s="234"/>
-      <c r="Y70" s="236"/>
+      <c r="X70" s="297"/>
+      <c r="Y70" s="287"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
@@ -17710,8 +17710,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X71" s="234"/>
-      <c r="Y71" s="236"/>
+      <c r="X71" s="297"/>
+      <c r="Y71" s="287"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="90" t="s">
@@ -17805,8 +17805,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X72" s="234"/>
-      <c r="Y72" s="236"/>
+      <c r="X72" s="297"/>
+      <c r="Y72" s="287"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
@@ -17900,8 +17900,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X73" s="234"/>
-      <c r="Y73" s="236"/>
+      <c r="X73" s="297"/>
+      <c r="Y73" s="287"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
@@ -17995,8 +17995,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X74" s="234"/>
-      <c r="Y74" s="236"/>
+      <c r="X74" s="297"/>
+      <c r="Y74" s="287"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
@@ -18090,8 +18090,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X75" s="234"/>
-      <c r="Y75" s="236"/>
+      <c r="X75" s="297"/>
+      <c r="Y75" s="287"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
@@ -18185,8 +18185,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X76" s="234"/>
-      <c r="Y76" s="236"/>
+      <c r="X76" s="297"/>
+      <c r="Y76" s="287"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
@@ -18280,8 +18280,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X77" s="234"/>
-      <c r="Y77" s="236"/>
+      <c r="X77" s="297"/>
+      <c r="Y77" s="287"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
@@ -18375,8 +18375,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X78" s="234"/>
-      <c r="Y78" s="236"/>
+      <c r="X78" s="297"/>
+      <c r="Y78" s="287"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
@@ -18470,8 +18470,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X79" s="234"/>
-      <c r="Y79" s="236"/>
+      <c r="X79" s="297"/>
+      <c r="Y79" s="287"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
@@ -18565,8 +18565,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X80" s="234"/>
-      <c r="Y80" s="236"/>
+      <c r="X80" s="297"/>
+      <c r="Y80" s="287"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="99"/>
@@ -19256,6 +19256,60 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2E3Q8WEFdjxloU03lKdfoTfFNevSEi4w4kRAAFLmLZBlPJPvR9jNl5/+XN/MDnESBW2fUaxEwTzg6XJj6vHA==" saltValue="O98nYpKCTff7QIvFUliSrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="70">
+    <mergeCell ref="W2:W8"/>
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="X26:X40"/>
+    <mergeCell ref="Y26:Y40"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="Y66:Y80"/>
+    <mergeCell ref="T43:T49"/>
+    <mergeCell ref="U43:U49"/>
+    <mergeCell ref="V43:V49"/>
+    <mergeCell ref="W43:W49"/>
+    <mergeCell ref="X66:X80"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="P2:P7"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="T2:T8"/>
+    <mergeCell ref="U2:U8"/>
+    <mergeCell ref="V2:V8"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="N43:N49"/>
+    <mergeCell ref="O43:O49"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="O2:O8"/>
+    <mergeCell ref="P43:P49"/>
+    <mergeCell ref="Q43:Q49"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="S43:S49"/>
+    <mergeCell ref="M43:M49"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="A42:D43"/>
     <mergeCell ref="E42:I42"/>
@@ -19272,60 +19326,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="J43:J49"/>
     <mergeCell ref="K43:K49"/>
-    <mergeCell ref="P43:P49"/>
-    <mergeCell ref="Q43:Q49"/>
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="S43:S49"/>
-    <mergeCell ref="M43:M49"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="N43:N49"/>
-    <mergeCell ref="O43:O49"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="O2:O8"/>
-    <mergeCell ref="P2:P7"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="S2:S8"/>
-    <mergeCell ref="T2:T8"/>
-    <mergeCell ref="U2:U8"/>
-    <mergeCell ref="V2:V8"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="Y66:Y80"/>
-    <mergeCell ref="T43:T49"/>
-    <mergeCell ref="U43:U49"/>
-    <mergeCell ref="V43:V49"/>
-    <mergeCell ref="W43:W49"/>
-    <mergeCell ref="X66:X80"/>
-    <mergeCell ref="W2:W8"/>
-    <mergeCell ref="Q2:Q7"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="X26:X40"/>
-    <mergeCell ref="Y26:Y40"/>
-    <mergeCell ref="R5:R7"/>
   </mergeCells>
   <conditionalFormatting sqref="U9:U40 U50:U80">
     <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="between">
@@ -19409,8 +19409,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19430,43 +19430,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="319" t="str">
+      <c r="A1" s="350" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="328" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="331"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
+      <c r="Z1" s="326"/>
+      <c r="AA1" s="326"/>
+      <c r="AB1" s="326"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
       <c r="AG1" s="63"/>
       <c r="AH1" s="55"/>
       <c r="AI1" s="55"/>
@@ -19474,48 +19474,48 @@
       <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="321"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="300" t="str">
+      <c r="A2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="368" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v/>
       </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="315" t="str">
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="370"/>
+      <c r="Q2" s="309" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="352" t="s">
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="310"/>
+      <c r="AA2" s="310"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="353"/>
-      <c r="AE2" s="347" t="s">
+      <c r="AD2" s="319"/>
+      <c r="AE2" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="298" t="s">
+      <c r="AF2" s="363" t="s">
         <v>99</v>
       </c>
       <c r="AG2" s="62"/>
@@ -19525,89 +19525,89 @@
       <c r="AK2" s="62"/>
     </row>
     <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="345" t="str">
+      <c r="A3" s="339" t="str">
         <f>CRS!A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="303" t="s">
+      <c r="F3" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="303" t="s">
+      <c r="G3" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="303" t="s">
+      <c r="I3" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="303" t="s">
+      <c r="J3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="303" t="s">
+      <c r="K3" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="303" t="s">
+      <c r="M3" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="303" t="s">
+      <c r="N3" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="340" t="s">
+      <c r="O3" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="311" t="s">
+      <c r="P3" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="303" t="s">
+      <c r="Q3" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="303" t="s">
+      <c r="S3" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="303" t="s">
+      <c r="T3" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="303" t="s">
+      <c r="U3" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="303" t="s">
+      <c r="V3" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="303" t="s">
+      <c r="W3" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="303" t="s">
+      <c r="X3" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="303" t="s">
+      <c r="Y3" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" s="303" t="s">
+      <c r="Z3" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" s="340" t="s">
+      <c r="AA3" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="AB3" s="311" t="s">
+      <c r="AB3" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="AC3" s="354"/>
-      <c r="AD3" s="355"/>
-      <c r="AE3" s="347"/>
-      <c r="AF3" s="298"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="321"/>
+      <c r="AE3" s="361"/>
+      <c r="AF3" s="363"/>
       <c r="AG3" s="62"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
@@ -19615,48 +19615,48 @@
       <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="323" t="str">
+      <c r="A4" s="334" t="str">
         <f>CRS!A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="325"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>S312</v>
       </c>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="304"/>
-      <c r="L4" s="304"/>
-      <c r="M4" s="304"/>
-      <c r="N4" s="304"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="304"/>
-      <c r="R4" s="304"/>
-      <c r="S4" s="304"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
-      <c r="Z4" s="304"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="312"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="307"/>
       <c r="AC4" s="68" t="s">
         <v>121</v>
       </c>
       <c r="AD4" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="AE4" s="347"/>
-      <c r="AF4" s="298"/>
+      <c r="AE4" s="361"/>
+      <c r="AF4" s="363"/>
       <c r="AG4" s="62"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
@@ -19664,13 +19664,13 @@
       <c r="AK4" s="62"/>
     </row>
     <row r="5" spans="1:37" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="323" t="str">
+      <c r="A5" s="334" t="str">
         <f>CRS!A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="108">
         <v>20</v>
       </c>
@@ -19685,8 +19685,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="312"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="307"/>
       <c r="Q5" s="108">
         <v>100</v>
       </c>
@@ -19707,14 +19707,14 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="312"/>
+      <c r="AA5" s="330"/>
+      <c r="AB5" s="307"/>
       <c r="AC5" s="110">
         <v>100</v>
       </c>
-      <c r="AD5" s="349"/>
-      <c r="AE5" s="347"/>
-      <c r="AF5" s="298"/>
+      <c r="AD5" s="322"/>
+      <c r="AE5" s="361"/>
+      <c r="AF5" s="363"/>
       <c r="AG5" s="62"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
@@ -19722,64 +19722,64 @@
       <c r="AK5" s="62"/>
     </row>
     <row r="6" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="359" t="str">
+      <c r="A6" s="341" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="305" t="s">
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="313" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="305" t="s">
+      <c r="F6" s="313" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="366">
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="331">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v>80</v>
       </c>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="305" t="s">
+      <c r="P6" s="307"/>
+      <c r="Q6" s="313" t="s">
         <v>227</v>
       </c>
-      <c r="R6" s="305" t="s">
+      <c r="R6" s="313" t="s">
         <v>228</v>
       </c>
-      <c r="S6" s="305" t="s">
+      <c r="S6" s="313" t="s">
         <v>229</v>
       </c>
-      <c r="T6" s="305" t="s">
+      <c r="T6" s="313" t="s">
         <v>230</v>
       </c>
-      <c r="U6" s="305" t="s">
+      <c r="U6" s="313" t="s">
         <v>231</v>
       </c>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="342">
+      <c r="V6" s="313"/>
+      <c r="W6" s="313"/>
+      <c r="X6" s="313"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="313"/>
+      <c r="AA6" s="358">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v>260</v>
       </c>
-      <c r="AB6" s="312"/>
-      <c r="AC6" s="356">
+      <c r="AB6" s="307"/>
+      <c r="AC6" s="365">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="AD6" s="350"/>
-      <c r="AE6" s="347"/>
-      <c r="AF6" s="298"/>
+      <c r="AD6" s="323"/>
+      <c r="AE6" s="361"/>
+      <c r="AF6" s="363"/>
       <c r="AG6" s="62"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
@@ -19787,44 +19787,44 @@
       <c r="AK6" s="62"/>
     </row>
     <row r="7" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="341" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="336" t="s">
+      <c r="B7" s="309"/>
+      <c r="C7" s="348" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="337" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="312"/>
-      <c r="AC7" s="357"/>
-      <c r="AD7" s="350"/>
-      <c r="AE7" s="347"/>
-      <c r="AF7" s="298"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="307"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="314"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="314"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
+      <c r="AA7" s="359"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="366"/>
+      <c r="AD7" s="323"/>
+      <c r="AE7" s="361"/>
+      <c r="AF7" s="363"/>
       <c r="AG7" s="55"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
@@ -19832,38 +19832,38 @@
       <c r="AK7" s="55"/>
     </row>
     <row r="8" spans="1:37" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="360"/>
-      <c r="B8" s="361"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="339"/>
-      <c r="K8" s="339"/>
-      <c r="L8" s="339"/>
-      <c r="M8" s="339"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="368"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="307"/>
-      <c r="T8" s="307"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="307"/>
-      <c r="Z8" s="307"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="351"/>
-      <c r="AE8" s="348"/>
-      <c r="AF8" s="299"/>
+      <c r="A8" s="342"/>
+      <c r="B8" s="343"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="315"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="315"/>
+      <c r="X8" s="315"/>
+      <c r="Y8" s="315"/>
+      <c r="Z8" s="315"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="308"/>
+      <c r="AC8" s="367"/>
+      <c r="AD8" s="324"/>
+      <c r="AE8" s="362"/>
+      <c r="AF8" s="364"/>
       <c r="AG8" s="55"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
@@ -19906,8 +19906,12 @@
         <f>IF(O9="","",O9/$O$6*100)</f>
         <v>25</v>
       </c>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
+      <c r="Q9" s="109">
+        <v>100</v>
+      </c>
+      <c r="R9" s="109">
+        <v>50</v>
+      </c>
       <c r="S9" s="109">
         <v>15</v>
       </c>
@@ -19924,11 +19928,11 @@
       <c r="Z9" s="109"/>
       <c r="AA9" s="60">
         <f>IF(SUM(Q9:Z9)=0,"",SUM(Q9:Z9))</f>
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="AB9" s="67">
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
-        <v>13.461538461538462</v>
+        <v>71.15384615384616</v>
       </c>
       <c r="AC9" s="111">
         <v>42</v>
@@ -19939,11 +19943,11 @@
       </c>
       <c r="AE9" s="66">
         <f>CRS!H9</f>
-        <v>26.972307692307695</v>
+        <v>46.010769230769235</v>
       </c>
       <c r="AF9" s="64">
         <f>CRS!I9</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
@@ -21222,8 +21226,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
+      <c r="Q25" s="109">
+        <v>100</v>
+      </c>
+      <c r="R25" s="109">
+        <v>100</v>
+      </c>
       <c r="S25" s="109">
         <v>0</v>
       </c>
@@ -21240,11 +21248,11 @@
       <c r="Z25" s="109"/>
       <c r="AA25" s="60">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="AB25" s="67">
         <f t="shared" si="3"/>
-        <v>14.23076923076923</v>
+        <v>91.153846153846146</v>
       </c>
       <c r="AC25" s="111">
         <v>64</v>
@@ -21255,11 +21263,11 @@
       </c>
       <c r="AE25" s="66">
         <f>CRS!H25</f>
-        <v>26.456153846153846</v>
+        <v>51.840769230769233</v>
       </c>
       <c r="AF25" s="64">
         <f>CRS!I25</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55"/>
@@ -21343,8 +21351,8 @@
         <f>CRS!I26</f>
         <v>79</v>
       </c>
-      <c r="AG26" s="373"/>
-      <c r="AH26" s="371" t="s">
+      <c r="AG26" s="300"/>
+      <c r="AH26" s="298" t="s">
         <v>126</v>
       </c>
     </row>
@@ -21429,8 +21437,8 @@
         <f>CRS!I27</f>
         <v>80</v>
       </c>
-      <c r="AG27" s="374"/>
-      <c r="AH27" s="372"/>
+      <c r="AG27" s="301"/>
+      <c r="AH27" s="299"/>
     </row>
     <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -21511,8 +21519,8 @@
         <f>CRS!I28</f>
         <v>74</v>
       </c>
-      <c r="AG28" s="374"/>
-      <c r="AH28" s="372"/>
+      <c r="AG28" s="301"/>
+      <c r="AH28" s="299"/>
     </row>
     <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -21595,8 +21603,8 @@
         <f>CRS!I29</f>
         <v>73</v>
       </c>
-      <c r="AG29" s="374"/>
-      <c r="AH29" s="372"/>
+      <c r="AG29" s="301"/>
+      <c r="AH29" s="299"/>
     </row>
     <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -21671,8 +21679,8 @@
         <f>CRS!I30</f>
         <v>71</v>
       </c>
-      <c r="AG30" s="374"/>
-      <c r="AH30" s="372"/>
+      <c r="AG30" s="301"/>
+      <c r="AH30" s="299"/>
     </row>
     <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -21755,8 +21763,8 @@
         <f>CRS!I31</f>
         <v>83</v>
       </c>
-      <c r="AG31" s="374"/>
-      <c r="AH31" s="372"/>
+      <c r="AG31" s="301"/>
+      <c r="AH31" s="299"/>
     </row>
     <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -21837,8 +21845,8 @@
         <f>CRS!I32</f>
         <v>74</v>
       </c>
-      <c r="AG32" s="374"/>
-      <c r="AH32" s="372"/>
+      <c r="AG32" s="301"/>
+      <c r="AH32" s="299"/>
     </row>
     <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -21919,8 +21927,8 @@
         <f>CRS!I33</f>
         <v>73</v>
       </c>
-      <c r="AG33" s="374"/>
-      <c r="AH33" s="372"/>
+      <c r="AG33" s="301"/>
+      <c r="AH33" s="299"/>
       <c r="AI33" s="55"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
@@ -22004,8 +22012,8 @@
         <f>CRS!I34</f>
         <v>73</v>
       </c>
-      <c r="AG34" s="374"/>
-      <c r="AH34" s="372"/>
+      <c r="AG34" s="301"/>
+      <c r="AH34" s="299"/>
       <c r="AI34" s="55"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
@@ -22083,8 +22091,8 @@
         <f>CRS!I35</f>
         <v>79</v>
       </c>
-      <c r="AG35" s="374"/>
-      <c r="AH35" s="372"/>
+      <c r="AG35" s="301"/>
+      <c r="AH35" s="299"/>
       <c r="AI35" s="55"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
@@ -22154,8 +22162,8 @@
         <f>CRS!I36</f>
         <v/>
       </c>
-      <c r="AG36" s="374"/>
-      <c r="AH36" s="372"/>
+      <c r="AG36" s="301"/>
+      <c r="AH36" s="299"/>
       <c r="AI36" s="55"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
@@ -22225,8 +22233,8 @@
         <f>CRS!I37</f>
         <v/>
       </c>
-      <c r="AG37" s="374"/>
-      <c r="AH37" s="372"/>
+      <c r="AG37" s="301"/>
+      <c r="AH37" s="299"/>
       <c r="AI37" s="55"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
@@ -22296,8 +22304,8 @@
         <f>CRS!I38</f>
         <v/>
       </c>
-      <c r="AG38" s="374"/>
-      <c r="AH38" s="372"/>
+      <c r="AG38" s="301"/>
+      <c r="AH38" s="299"/>
       <c r="AI38" s="55"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
@@ -22367,8 +22375,8 @@
         <f>CRS!I39</f>
         <v/>
       </c>
-      <c r="AG39" s="374"/>
-      <c r="AH39" s="372"/>
+      <c r="AG39" s="301"/>
+      <c r="AH39" s="299"/>
       <c r="AI39" s="55"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
@@ -22438,8 +22446,8 @@
         <f>CRS!I40</f>
         <v/>
       </c>
-      <c r="AG40" s="374"/>
-      <c r="AH40" s="372"/>
+      <c r="AG40" s="301"/>
+      <c r="AH40" s="299"/>
       <c r="AI40" s="55"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
@@ -22484,43 +22492,43 @@
       <c r="AK41" s="55"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332" t="str">
+      <c r="A42" s="354" t="str">
         <f>A1</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B42" s="333"/>
-      <c r="C42" s="333"/>
-      <c r="D42" s="333"/>
-      <c r="E42" s="328" t="s">
+      <c r="B42" s="355"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="325" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="328"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="329"/>
-      <c r="O42" s="329"/>
-      <c r="P42" s="329"/>
-      <c r="Q42" s="329"/>
-      <c r="R42" s="329"/>
-      <c r="S42" s="329"/>
-      <c r="T42" s="329"/>
-      <c r="U42" s="329"/>
-      <c r="V42" s="329"/>
-      <c r="W42" s="329"/>
-      <c r="X42" s="329"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="329"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="329"/>
-      <c r="AC42" s="330"/>
-      <c r="AD42" s="330"/>
-      <c r="AE42" s="330"/>
-      <c r="AF42" s="331"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="325"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="326"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="326"/>
+      <c r="R42" s="326"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="326"/>
+      <c r="Z42" s="326"/>
+      <c r="AA42" s="326"/>
+      <c r="AB42" s="326"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="327"/>
+      <c r="AF42" s="328"/>
       <c r="AG42" s="55"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
@@ -22528,48 +22536,48 @@
       <c r="AK42" s="55"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="334"/>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="315" t="str">
+      <c r="A43" s="356"/>
+      <c r="B43" s="357"/>
+      <c r="C43" s="357"/>
+      <c r="D43" s="357"/>
+      <c r="E43" s="309" t="str">
         <f>E2</f>
         <v/>
       </c>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="316"/>
-      <c r="L43" s="316"/>
-      <c r="M43" s="316"/>
-      <c r="N43" s="316"/>
-      <c r="O43" s="316"/>
-      <c r="P43" s="304"/>
-      <c r="Q43" s="315" t="str">
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="310"/>
+      <c r="M43" s="310"/>
+      <c r="N43" s="310"/>
+      <c r="O43" s="310"/>
+      <c r="P43" s="311"/>
+      <c r="Q43" s="309" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="316"/>
-      <c r="S43" s="316"/>
-      <c r="T43" s="316"/>
-      <c r="U43" s="316"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="316"/>
-      <c r="X43" s="316"/>
-      <c r="Y43" s="316"/>
-      <c r="Z43" s="316"/>
-      <c r="AA43" s="316"/>
-      <c r="AB43" s="304"/>
-      <c r="AC43" s="352" t="s">
+      <c r="R43" s="310"/>
+      <c r="S43" s="310"/>
+      <c r="T43" s="310"/>
+      <c r="U43" s="310"/>
+      <c r="V43" s="310"/>
+      <c r="W43" s="310"/>
+      <c r="X43" s="310"/>
+      <c r="Y43" s="310"/>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="311"/>
+      <c r="AC43" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="AD43" s="353"/>
-      <c r="AE43" s="347" t="s">
+      <c r="AD43" s="319"/>
+      <c r="AE43" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="AF43" s="298" t="s">
+      <c r="AF43" s="363" t="s">
         <v>99</v>
       </c>
       <c r="AG43" s="62"/>
@@ -22579,89 +22587,89 @@
       <c r="AK43" s="62"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="345" t="str">
+      <c r="A44" s="339" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="346"/>
-      <c r="C44" s="346"/>
-      <c r="D44" s="346"/>
-      <c r="E44" s="303" t="s">
+      <c r="B44" s="340"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="303" t="s">
+      <c r="F44" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="303" t="s">
+      <c r="G44" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="303" t="s">
+      <c r="H44" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="303" t="s">
+      <c r="I44" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="303" t="s">
+      <c r="J44" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="303" t="s">
+      <c r="K44" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="L44" s="303" t="s">
+      <c r="L44" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="M44" s="303" t="s">
+      <c r="M44" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="N44" s="303" t="s">
+      <c r="N44" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="340" t="s">
+      <c r="O44" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="311" t="s">
+      <c r="P44" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="Q44" s="303" t="s">
+      <c r="Q44" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="R44" s="303" t="s">
+      <c r="R44" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="S44" s="303" t="s">
+      <c r="S44" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="T44" s="303" t="s">
+      <c r="T44" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="U44" s="303" t="s">
+      <c r="U44" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="V44" s="303" t="s">
+      <c r="V44" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="W44" s="303" t="s">
+      <c r="W44" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="X44" s="303" t="s">
+      <c r="X44" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="Y44" s="303" t="s">
+      <c r="Y44" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Z44" s="303" t="s">
+      <c r="Z44" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="AA44" s="340" t="s">
+      <c r="AA44" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="AB44" s="311" t="s">
+      <c r="AB44" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="AC44" s="354"/>
-      <c r="AD44" s="355"/>
-      <c r="AE44" s="347"/>
-      <c r="AF44" s="298"/>
+      <c r="AC44" s="320"/>
+      <c r="AD44" s="321"/>
+      <c r="AE44" s="361"/>
+      <c r="AF44" s="363"/>
       <c r="AG44" s="62"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
@@ -22669,48 +22677,48 @@
       <c r="AK44" s="62"/>
     </row>
     <row r="45" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="323" t="str">
+      <c r="A45" s="334" t="str">
         <f>A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B45" s="324"/>
-      <c r="C45" s="325"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="336"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>S312</v>
       </c>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
-      <c r="I45" s="303"/>
-      <c r="J45" s="303"/>
-      <c r="K45" s="303"/>
-      <c r="L45" s="303"/>
-      <c r="M45" s="303"/>
-      <c r="N45" s="303"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="311"/>
-      <c r="Q45" s="304"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="304"/>
-      <c r="T45" s="304"/>
-      <c r="U45" s="303"/>
-      <c r="V45" s="303"/>
-      <c r="W45" s="304"/>
-      <c r="X45" s="304"/>
-      <c r="Y45" s="304"/>
-      <c r="Z45" s="304"/>
-      <c r="AA45" s="341"/>
-      <c r="AB45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
+      <c r="O45" s="329"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="311"/>
+      <c r="R45" s="311"/>
+      <c r="S45" s="311"/>
+      <c r="T45" s="311"/>
+      <c r="U45" s="312"/>
+      <c r="V45" s="312"/>
+      <c r="W45" s="311"/>
+      <c r="X45" s="311"/>
+      <c r="Y45" s="311"/>
+      <c r="Z45" s="311"/>
+      <c r="AA45" s="330"/>
+      <c r="AB45" s="307"/>
       <c r="AC45" s="68" t="s">
         <v>121</v>
       </c>
       <c r="AD45" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="AE45" s="347"/>
-      <c r="AF45" s="298"/>
+      <c r="AE45" s="361"/>
+      <c r="AF45" s="363"/>
       <c r="AG45" s="62"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
@@ -22718,13 +22726,13 @@
       <c r="AK45" s="62"/>
     </row>
     <row r="46" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="323" t="str">
+      <c r="A46" s="334" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="324"/>
-      <c r="C46" s="325"/>
-      <c r="D46" s="325"/>
+      <c r="B46" s="335"/>
+      <c r="C46" s="336"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="57">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
         <v>20</v>
@@ -22765,8 +22773,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="340"/>
-      <c r="P46" s="311"/>
+      <c r="O46" s="329"/>
+      <c r="P46" s="306"/>
       <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
         <v>100</v>
@@ -22807,15 +22815,15 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="341"/>
-      <c r="AB46" s="312"/>
+      <c r="AA46" s="330"/>
+      <c r="AB46" s="307"/>
       <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
         <v>100</v>
       </c>
-      <c r="AD46" s="349"/>
-      <c r="AE46" s="347"/>
-      <c r="AF46" s="298"/>
+      <c r="AD46" s="322"/>
+      <c r="AE46" s="361"/>
+      <c r="AF46" s="363"/>
       <c r="AG46" s="62"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
@@ -22823,110 +22831,110 @@
       <c r="AK46" s="62"/>
     </row>
     <row r="47" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="359" t="str">
+      <c r="A47" s="341" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="316"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="317" t="str">
+      <c r="B47" s="310"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="302" t="str">
         <f>IF(E6="","",E6)</f>
         <v>SW CH01</v>
       </c>
-      <c r="F47" s="317" t="str">
+      <c r="F47" s="302" t="str">
         <f t="shared" ref="F47:N47" si="7">IF(F6="","",F6)</f>
         <v>RPT</v>
       </c>
-      <c r="G47" s="317" t="str">
+      <c r="G47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H47" s="317" t="str">
+      <c r="H47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I47" s="317" t="str">
+      <c r="I47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J47" s="317" t="str">
+      <c r="J47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K47" s="317" t="str">
+      <c r="K47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L47" s="317" t="str">
+      <c r="L47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M47" s="317" t="str">
+      <c r="M47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N47" s="317" t="str">
+      <c r="N47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="369">
+      <c r="O47" s="304">
         <f>O6</f>
         <v>80</v>
       </c>
-      <c r="P47" s="311"/>
-      <c r="Q47" s="317" t="str">
+      <c r="P47" s="306"/>
+      <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
         <v>HTML CSS</v>
       </c>
-      <c r="R47" s="317" t="str">
+      <c r="R47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>MAW</v>
       </c>
-      <c r="S47" s="317" t="str">
+      <c r="S47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Exer01</v>
       </c>
-      <c r="T47" s="317" t="str">
+      <c r="T47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Exer02</v>
       </c>
-      <c r="U47" s="317" t="str">
+      <c r="U47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Exer03</v>
       </c>
-      <c r="V47" s="317" t="str">
+      <c r="V47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="W47" s="317" t="str">
+      <c r="W47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X47" s="317" t="str">
+      <c r="X47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y47" s="317" t="str">
+      <c r="Y47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z47" s="317" t="str">
+      <c r="Z47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="369">
+      <c r="AA47" s="304">
         <f>AA6</f>
         <v>260</v>
       </c>
-      <c r="AB47" s="312"/>
-      <c r="AC47" s="308">
+      <c r="AB47" s="307"/>
+      <c r="AC47" s="371">
         <f>AC6</f>
         <v>40575</v>
       </c>
-      <c r="AD47" s="350"/>
-      <c r="AE47" s="347"/>
-      <c r="AF47" s="298"/>
+      <c r="AD47" s="323"/>
+      <c r="AE47" s="361"/>
+      <c r="AF47" s="363"/>
       <c r="AG47" s="62"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
@@ -22934,44 +22942,44 @@
       <c r="AK47" s="62"/>
     </row>
     <row r="48" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="362" t="s">
+      <c r="A48" s="344" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="363"/>
-      <c r="C48" s="336" t="s">
+      <c r="B48" s="345"/>
+      <c r="C48" s="348" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="337" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="369"/>
-      <c r="P48" s="311"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
-      <c r="V48" s="317"/>
-      <c r="W48" s="317"/>
-      <c r="X48" s="317"/>
-      <c r="Y48" s="317"/>
-      <c r="Z48" s="317"/>
-      <c r="AA48" s="369"/>
-      <c r="AB48" s="312"/>
-      <c r="AC48" s="309"/>
-      <c r="AD48" s="350"/>
-      <c r="AE48" s="347"/>
-      <c r="AF48" s="298"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="302"/>
+      <c r="I48" s="302"/>
+      <c r="J48" s="302"/>
+      <c r="K48" s="302"/>
+      <c r="L48" s="302"/>
+      <c r="M48" s="302"/>
+      <c r="N48" s="302"/>
+      <c r="O48" s="304"/>
+      <c r="P48" s="306"/>
+      <c r="Q48" s="302"/>
+      <c r="R48" s="302"/>
+      <c r="S48" s="302"/>
+      <c r="T48" s="302"/>
+      <c r="U48" s="302"/>
+      <c r="V48" s="302"/>
+      <c r="W48" s="302"/>
+      <c r="X48" s="302"/>
+      <c r="Y48" s="302"/>
+      <c r="Z48" s="302"/>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="307"/>
+      <c r="AC48" s="372"/>
+      <c r="AD48" s="323"/>
+      <c r="AE48" s="361"/>
+      <c r="AF48" s="363"/>
       <c r="AG48" s="55"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -22979,38 +22987,38 @@
       <c r="AK48" s="55"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="364"/>
-      <c r="B49" s="365"/>
-      <c r="C49" s="337"/>
-      <c r="D49" s="327"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
-      <c r="K49" s="318"/>
-      <c r="L49" s="318"/>
-      <c r="M49" s="318"/>
-      <c r="N49" s="318"/>
-      <c r="O49" s="370"/>
-      <c r="P49" s="314"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="318"/>
-      <c r="T49" s="318"/>
-      <c r="U49" s="318"/>
-      <c r="V49" s="318"/>
-      <c r="W49" s="318"/>
-      <c r="X49" s="318"/>
-      <c r="Y49" s="318"/>
-      <c r="Z49" s="318"/>
-      <c r="AA49" s="370"/>
-      <c r="AB49" s="313"/>
-      <c r="AC49" s="310"/>
-      <c r="AD49" s="351"/>
-      <c r="AE49" s="348"/>
-      <c r="AF49" s="299"/>
+      <c r="A49" s="346"/>
+      <c r="B49" s="347"/>
+      <c r="C49" s="349"/>
+      <c r="D49" s="338"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
+      <c r="I49" s="303"/>
+      <c r="J49" s="303"/>
+      <c r="K49" s="303"/>
+      <c r="L49" s="303"/>
+      <c r="M49" s="303"/>
+      <c r="N49" s="303"/>
+      <c r="O49" s="305"/>
+      <c r="P49" s="374"/>
+      <c r="Q49" s="303"/>
+      <c r="R49" s="303"/>
+      <c r="S49" s="303"/>
+      <c r="T49" s="303"/>
+      <c r="U49" s="303"/>
+      <c r="V49" s="303"/>
+      <c r="W49" s="303"/>
+      <c r="X49" s="303"/>
+      <c r="Y49" s="303"/>
+      <c r="Z49" s="303"/>
+      <c r="AA49" s="305"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="373"/>
+      <c r="AD49" s="324"/>
+      <c r="AE49" s="362"/>
+      <c r="AF49" s="364"/>
     </row>
     <row r="50" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -24135,8 +24143,8 @@
         <f>CRS!I66</f>
         <v/>
       </c>
-      <c r="AG66" s="373"/>
-      <c r="AH66" s="371" t="s">
+      <c r="AG66" s="300"/>
+      <c r="AH66" s="298" t="s">
         <v>126</v>
       </c>
     </row>
@@ -24205,8 +24213,8 @@
         <f>CRS!I67</f>
         <v/>
       </c>
-      <c r="AG67" s="374"/>
-      <c r="AH67" s="372"/>
+      <c r="AG67" s="301"/>
+      <c r="AH67" s="299"/>
     </row>
     <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -24273,8 +24281,8 @@
         <f>CRS!I68</f>
         <v/>
       </c>
-      <c r="AG68" s="374"/>
-      <c r="AH68" s="372"/>
+      <c r="AG68" s="301"/>
+      <c r="AH68" s="299"/>
     </row>
     <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -24341,8 +24349,8 @@
         <f>CRS!I69</f>
         <v/>
       </c>
-      <c r="AG69" s="374"/>
-      <c r="AH69" s="372"/>
+      <c r="AG69" s="301"/>
+      <c r="AH69" s="299"/>
     </row>
     <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -24409,8 +24417,8 @@
         <f>CRS!I70</f>
         <v/>
       </c>
-      <c r="AG70" s="374"/>
-      <c r="AH70" s="372"/>
+      <c r="AG70" s="301"/>
+      <c r="AH70" s="299"/>
     </row>
     <row r="71" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -24477,8 +24485,8 @@
         <f>CRS!I71</f>
         <v/>
       </c>
-      <c r="AG71" s="374"/>
-      <c r="AH71" s="372"/>
+      <c r="AG71" s="301"/>
+      <c r="AH71" s="299"/>
     </row>
     <row r="72" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -24545,8 +24553,8 @@
         <f>CRS!I72</f>
         <v/>
       </c>
-      <c r="AG72" s="374"/>
-      <c r="AH72" s="372"/>
+      <c r="AG72" s="301"/>
+      <c r="AH72" s="299"/>
     </row>
     <row r="73" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -24613,8 +24621,8 @@
         <f>CRS!I73</f>
         <v/>
       </c>
-      <c r="AG73" s="374"/>
-      <c r="AH73" s="372"/>
+      <c r="AG73" s="301"/>
+      <c r="AH73" s="299"/>
     </row>
     <row r="74" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -24681,8 +24689,8 @@
         <f>CRS!I74</f>
         <v/>
       </c>
-      <c r="AG74" s="374"/>
-      <c r="AH74" s="372"/>
+      <c r="AG74" s="301"/>
+      <c r="AH74" s="299"/>
     </row>
     <row r="75" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -24749,8 +24757,8 @@
         <f>CRS!I75</f>
         <v/>
       </c>
-      <c r="AG75" s="374"/>
-      <c r="AH75" s="372"/>
+      <c r="AG75" s="301"/>
+      <c r="AH75" s="299"/>
     </row>
     <row r="76" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -24817,8 +24825,8 @@
         <f>CRS!I76</f>
         <v/>
       </c>
-      <c r="AG76" s="374"/>
-      <c r="AH76" s="372"/>
+      <c r="AG76" s="301"/>
+      <c r="AH76" s="299"/>
     </row>
     <row r="77" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -24885,8 +24893,8 @@
         <f>CRS!I77</f>
         <v/>
       </c>
-      <c r="AG77" s="374"/>
-      <c r="AH77" s="372"/>
+      <c r="AG77" s="301"/>
+      <c r="AH77" s="299"/>
     </row>
     <row r="78" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -24953,8 +24961,8 @@
         <f>CRS!I78</f>
         <v/>
       </c>
-      <c r="AG78" s="374"/>
-      <c r="AH78" s="372"/>
+      <c r="AG78" s="301"/>
+      <c r="AH78" s="299"/>
     </row>
     <row r="79" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -25021,8 +25029,8 @@
         <f>CRS!I79</f>
         <v/>
       </c>
-      <c r="AG79" s="374"/>
-      <c r="AH79" s="372"/>
+      <c r="AG79" s="301"/>
+      <c r="AH79" s="299"/>
     </row>
     <row r="80" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -25089,8 +25097,8 @@
         <f>CRS!I80</f>
         <v/>
       </c>
-      <c r="AG80" s="374"/>
-      <c r="AH80" s="372"/>
+      <c r="AG80" s="301"/>
+      <c r="AH80" s="299"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -25370,6 +25378,110 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sq5jNjiBvRhnKHfivcv63PIil4qKS/9mQiV4aFr69nDzINu+0ecn8NT3diVZT68S0si8O2smy0x5/onhwU/zA==" saltValue="Xa18L1vVZidTgwLONF3CHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="E1:AF1"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="S47:S49"/>
     <mergeCell ref="AH66:AH80"/>
     <mergeCell ref="AG66:AG80"/>
     <mergeCell ref="AH26:AH40"/>
@@ -25394,110 +25506,6 @@
     <mergeCell ref="E42:AF42"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="E47:E49"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="E1:AF1"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AD46:AD49"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <dataValidations xWindow="307" yWindow="360" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -25601,44 +25609,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="319" t="str">
+      <c r="A1" s="350" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="328" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="325" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="331"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
+      <c r="Z1" s="326"/>
+      <c r="AA1" s="326"/>
+      <c r="AB1" s="326"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
+      <c r="AG1" s="328"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -25646,51 +25654,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="321"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="300" t="str">
+      <c r="A2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="368" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v/>
       </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="315" t="str">
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="370"/>
+      <c r="Q2" s="309" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="352" t="s">
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="310"/>
+      <c r="AA2" s="310"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="353"/>
+      <c r="AD2" s="319"/>
       <c r="AE2" s="375" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="347" t="s">
+      <c r="AF2" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="AG2" s="298" t="s">
+      <c r="AG2" s="363" t="s">
         <v>99</v>
       </c>
       <c r="AH2" s="62"/>
@@ -25700,90 +25708,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="345" t="str">
+      <c r="A3" s="339" t="str">
         <f>CRS!A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="303" t="s">
+      <c r="F3" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="303" t="s">
+      <c r="G3" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="303" t="s">
+      <c r="I3" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="303" t="s">
+      <c r="J3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="303" t="s">
+      <c r="K3" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="303" t="s">
+      <c r="M3" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="303" t="s">
+      <c r="N3" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="340" t="s">
+      <c r="O3" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="311" t="s">
+      <c r="P3" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="303" t="s">
+      <c r="Q3" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="303" t="s">
+      <c r="S3" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="303" t="s">
+      <c r="T3" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="303" t="s">
+      <c r="U3" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="303" t="s">
+      <c r="V3" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="303" t="s">
+      <c r="W3" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="303" t="s">
+      <c r="X3" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="303" t="s">
+      <c r="Y3" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" s="303" t="s">
+      <c r="Z3" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" s="340" t="s">
+      <c r="AA3" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="AB3" s="311" t="s">
+      <c r="AB3" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="AC3" s="354"/>
-      <c r="AD3" s="355"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="321"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="347"/>
-      <c r="AG3" s="298"/>
+      <c r="AF3" s="361"/>
+      <c r="AG3" s="363"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -25791,40 +25799,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="323" t="str">
+      <c r="A4" s="334" t="str">
         <f>CRS!A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="325"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>S312</v>
       </c>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="304"/>
-      <c r="L4" s="304"/>
-      <c r="M4" s="304"/>
-      <c r="N4" s="304"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="304"/>
-      <c r="R4" s="304"/>
-      <c r="S4" s="304"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
-      <c r="Z4" s="304"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="312"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="307"/>
       <c r="AC4" s="68" t="s">
         <v>121</v>
       </c>
@@ -25832,8 +25840,8 @@
         <v>122</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="347"/>
-      <c r="AG4" s="298"/>
+      <c r="AF4" s="361"/>
+      <c r="AG4" s="363"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -25841,13 +25849,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="323" t="str">
+      <c r="A5" s="334" t="str">
         <f>CRS!A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -25858,8 +25866,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="312"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="307"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -25870,13 +25878,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="312"/>
+      <c r="AA5" s="330"/>
+      <c r="AB5" s="307"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="349"/>
+      <c r="AD5" s="322"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="347"/>
-      <c r="AG5" s="298"/>
+      <c r="AF5" s="361"/>
+      <c r="AG5" s="363"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -25884,51 +25892,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="359" t="str">
+      <c r="A6" s="341" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="366" t="str">
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="331" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="342" t="str">
+      <c r="P6" s="307"/>
+      <c r="Q6" s="313"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="313"/>
+      <c r="W6" s="313"/>
+      <c r="X6" s="313"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="313"/>
+      <c r="AA6" s="358" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="312"/>
-      <c r="AC6" s="356">
+      <c r="AB6" s="307"/>
+      <c r="AC6" s="365">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="AD6" s="350"/>
+      <c r="AD6" s="323"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="347"/>
-      <c r="AG6" s="298"/>
+      <c r="AF6" s="361"/>
+      <c r="AG6" s="363"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -25936,45 +25944,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="341" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="336" t="s">
+      <c r="B7" s="309"/>
+      <c r="C7" s="348" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="337" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="312"/>
-      <c r="AC7" s="357"/>
-      <c r="AD7" s="350"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="307"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="314"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="314"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
+      <c r="AA7" s="359"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="366"/>
+      <c r="AD7" s="323"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="347"/>
-      <c r="AG7" s="298"/>
+      <c r="AF7" s="361"/>
+      <c r="AG7" s="363"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -25982,39 +25990,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="360"/>
-      <c r="B8" s="361"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="339"/>
-      <c r="K8" s="339"/>
-      <c r="L8" s="339"/>
-      <c r="M8" s="339"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="368"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="307"/>
-      <c r="T8" s="307"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="307"/>
-      <c r="Z8" s="307"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="351"/>
+      <c r="A8" s="342"/>
+      <c r="B8" s="343"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="315"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="315"/>
+      <c r="X8" s="315"/>
+      <c r="Y8" s="315"/>
+      <c r="Z8" s="315"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="308"/>
+      <c r="AC8" s="367"/>
+      <c r="AD8" s="324"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="348"/>
-      <c r="AG8" s="299"/>
+      <c r="AF8" s="362"/>
+      <c r="AG8" s="364"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -27338,8 +27346,8 @@
         <f>CRS!O26</f>
         <v/>
       </c>
-      <c r="AH26" s="373"/>
-      <c r="AI26" s="371" t="s">
+      <c r="AH26" s="300"/>
+      <c r="AI26" s="298" t="s">
         <v>126</v>
       </c>
     </row>
@@ -27412,8 +27420,8 @@
         <f>CRS!O27</f>
         <v/>
       </c>
-      <c r="AH27" s="374"/>
-      <c r="AI27" s="372"/>
+      <c r="AH27" s="301"/>
+      <c r="AI27" s="299"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -27484,8 +27492,8 @@
         <f>CRS!O28</f>
         <v/>
       </c>
-      <c r="AH28" s="374"/>
-      <c r="AI28" s="372"/>
+      <c r="AH28" s="301"/>
+      <c r="AI28" s="299"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -27556,8 +27564,8 @@
         <f>CRS!O29</f>
         <v/>
       </c>
-      <c r="AH29" s="374"/>
-      <c r="AI29" s="372"/>
+      <c r="AH29" s="301"/>
+      <c r="AI29" s="299"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -27628,8 +27636,8 @@
         <f>CRS!O30</f>
         <v/>
       </c>
-      <c r="AH30" s="374"/>
-      <c r="AI30" s="372"/>
+      <c r="AH30" s="301"/>
+      <c r="AI30" s="299"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -27700,8 +27708,8 @@
         <f>CRS!O31</f>
         <v/>
       </c>
-      <c r="AH31" s="374"/>
-      <c r="AI31" s="372"/>
+      <c r="AH31" s="301"/>
+      <c r="AI31" s="299"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -27772,8 +27780,8 @@
         <f>CRS!O32</f>
         <v/>
       </c>
-      <c r="AH32" s="374"/>
-      <c r="AI32" s="372"/>
+      <c r="AH32" s="301"/>
+      <c r="AI32" s="299"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -27844,8 +27852,8 @@
         <f>CRS!O33</f>
         <v/>
       </c>
-      <c r="AH33" s="374"/>
-      <c r="AI33" s="372"/>
+      <c r="AH33" s="301"/>
+      <c r="AI33" s="299"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -27919,8 +27927,8 @@
         <f>CRS!O34</f>
         <v/>
       </c>
-      <c r="AH34" s="374"/>
-      <c r="AI34" s="372"/>
+      <c r="AH34" s="301"/>
+      <c r="AI34" s="299"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -27994,8 +28002,8 @@
         <f>CRS!O35</f>
         <v/>
       </c>
-      <c r="AH35" s="374"/>
-      <c r="AI35" s="372"/>
+      <c r="AH35" s="301"/>
+      <c r="AI35" s="299"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -28069,8 +28077,8 @@
         <f>CRS!O36</f>
         <v/>
       </c>
-      <c r="AH36" s="374"/>
-      <c r="AI36" s="372"/>
+      <c r="AH36" s="301"/>
+      <c r="AI36" s="299"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -28144,8 +28152,8 @@
         <f>CRS!O37</f>
         <v/>
       </c>
-      <c r="AH37" s="374"/>
-      <c r="AI37" s="372"/>
+      <c r="AH37" s="301"/>
+      <c r="AI37" s="299"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -28219,8 +28227,8 @@
         <f>CRS!O38</f>
         <v/>
       </c>
-      <c r="AH38" s="374"/>
-      <c r="AI38" s="372"/>
+      <c r="AH38" s="301"/>
+      <c r="AI38" s="299"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -28294,8 +28302,8 @@
         <f>CRS!O39</f>
         <v/>
       </c>
-      <c r="AH39" s="374"/>
-      <c r="AI39" s="372"/>
+      <c r="AH39" s="301"/>
+      <c r="AI39" s="299"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -28369,8 +28377,8 @@
         <f>CRS!O40</f>
         <v/>
       </c>
-      <c r="AH40" s="374"/>
-      <c r="AI40" s="372"/>
+      <c r="AH40" s="301"/>
+      <c r="AI40" s="299"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -28416,44 +28424,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332" t="str">
+      <c r="A42" s="354" t="str">
         <f>A1</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B42" s="333"/>
-      <c r="C42" s="333"/>
-      <c r="D42" s="333"/>
-      <c r="E42" s="328" t="s">
+      <c r="B42" s="355"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="325" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="328"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="329"/>
-      <c r="O42" s="329"/>
-      <c r="P42" s="329"/>
-      <c r="Q42" s="329"/>
-      <c r="R42" s="329"/>
-      <c r="S42" s="329"/>
-      <c r="T42" s="329"/>
-      <c r="U42" s="329"/>
-      <c r="V42" s="329"/>
-      <c r="W42" s="329"/>
-      <c r="X42" s="329"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="329"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="329"/>
-      <c r="AC42" s="330"/>
-      <c r="AD42" s="330"/>
-      <c r="AE42" s="330"/>
-      <c r="AF42" s="330"/>
-      <c r="AG42" s="331"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="325"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="326"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="326"/>
+      <c r="R42" s="326"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="326"/>
+      <c r="Z42" s="326"/>
+      <c r="AA42" s="326"/>
+      <c r="AB42" s="326"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="327"/>
+      <c r="AF42" s="327"/>
+      <c r="AG42" s="328"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -28461,52 +28469,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="334"/>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="315" t="str">
+      <c r="A43" s="356"/>
+      <c r="B43" s="357"/>
+      <c r="C43" s="357"/>
+      <c r="D43" s="357"/>
+      <c r="E43" s="309" t="str">
         <f>E2</f>
         <v/>
       </c>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="316"/>
-      <c r="L43" s="316"/>
-      <c r="M43" s="316"/>
-      <c r="N43" s="316"/>
-      <c r="O43" s="316"/>
-      <c r="P43" s="304"/>
-      <c r="Q43" s="315" t="str">
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="310"/>
+      <c r="M43" s="310"/>
+      <c r="N43" s="310"/>
+      <c r="O43" s="310"/>
+      <c r="P43" s="311"/>
+      <c r="Q43" s="309" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="316"/>
-      <c r="S43" s="316"/>
-      <c r="T43" s="316"/>
-      <c r="U43" s="316"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="316"/>
-      <c r="X43" s="316"/>
-      <c r="Y43" s="316"/>
-      <c r="Z43" s="316"/>
-      <c r="AA43" s="316"/>
-      <c r="AB43" s="304"/>
-      <c r="AC43" s="352" t="s">
+      <c r="R43" s="310"/>
+      <c r="S43" s="310"/>
+      <c r="T43" s="310"/>
+      <c r="U43" s="310"/>
+      <c r="V43" s="310"/>
+      <c r="W43" s="310"/>
+      <c r="X43" s="310"/>
+      <c r="Y43" s="310"/>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="311"/>
+      <c r="AC43" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="AD43" s="353"/>
+      <c r="AD43" s="319"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="347" t="s">
+      <c r="AF43" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="AG43" s="298" t="s">
+      <c r="AG43" s="363" t="s">
         <v>99</v>
       </c>
       <c r="AH43" s="62"/>
@@ -28516,90 +28524,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="345" t="str">
+      <c r="A44" s="339" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="346"/>
-      <c r="C44" s="346"/>
-      <c r="D44" s="346"/>
-      <c r="E44" s="303" t="s">
+      <c r="B44" s="340"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="303" t="s">
+      <c r="F44" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="303" t="s">
+      <c r="G44" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="303" t="s">
+      <c r="H44" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="303" t="s">
+      <c r="I44" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="303" t="s">
+      <c r="J44" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="303" t="s">
+      <c r="K44" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="L44" s="303" t="s">
+      <c r="L44" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="M44" s="303" t="s">
+      <c r="M44" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="N44" s="303" t="s">
+      <c r="N44" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="340" t="s">
+      <c r="O44" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="311" t="s">
+      <c r="P44" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="Q44" s="303" t="s">
+      <c r="Q44" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="R44" s="303" t="s">
+      <c r="R44" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="S44" s="303" t="s">
+      <c r="S44" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="T44" s="303" t="s">
+      <c r="T44" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="U44" s="303" t="s">
+      <c r="U44" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="V44" s="303" t="s">
+      <c r="V44" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="W44" s="303" t="s">
+      <c r="W44" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="X44" s="303" t="s">
+      <c r="X44" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="Y44" s="303" t="s">
+      <c r="Y44" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Z44" s="303" t="s">
+      <c r="Z44" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="AA44" s="340" t="s">
+      <c r="AA44" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="AB44" s="311" t="s">
+      <c r="AB44" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="AC44" s="354"/>
-      <c r="AD44" s="355"/>
+      <c r="AC44" s="320"/>
+      <c r="AD44" s="321"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="347"/>
-      <c r="AG44" s="298"/>
+      <c r="AF44" s="361"/>
+      <c r="AG44" s="363"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -28607,40 +28615,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="323" t="str">
+      <c r="A45" s="334" t="str">
         <f>A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B45" s="324"/>
-      <c r="C45" s="325"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="336"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>S312</v>
       </c>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
-      <c r="I45" s="303"/>
-      <c r="J45" s="303"/>
-      <c r="K45" s="303"/>
-      <c r="L45" s="303"/>
-      <c r="M45" s="303"/>
-      <c r="N45" s="303"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="311"/>
-      <c r="Q45" s="304"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="304"/>
-      <c r="T45" s="304"/>
-      <c r="U45" s="303"/>
-      <c r="V45" s="303"/>
-      <c r="W45" s="304"/>
-      <c r="X45" s="304"/>
-      <c r="Y45" s="304"/>
-      <c r="Z45" s="304"/>
-      <c r="AA45" s="341"/>
-      <c r="AB45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
+      <c r="O45" s="329"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="311"/>
+      <c r="R45" s="311"/>
+      <c r="S45" s="311"/>
+      <c r="T45" s="311"/>
+      <c r="U45" s="312"/>
+      <c r="V45" s="312"/>
+      <c r="W45" s="311"/>
+      <c r="X45" s="311"/>
+      <c r="Y45" s="311"/>
+      <c r="Z45" s="311"/>
+      <c r="AA45" s="330"/>
+      <c r="AB45" s="307"/>
       <c r="AC45" s="68" t="s">
         <v>121</v>
       </c>
@@ -28648,8 +28656,8 @@
         <v>122</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="347"/>
-      <c r="AG45" s="298"/>
+      <c r="AF45" s="361"/>
+      <c r="AG45" s="363"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -28657,13 +28665,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="323" t="str">
+      <c r="A46" s="334" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="324"/>
-      <c r="C46" s="325"/>
-      <c r="D46" s="325"/>
+      <c r="B46" s="335"/>
+      <c r="C46" s="336"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -28704,8 +28712,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="340"/>
-      <c r="P46" s="311"/>
+      <c r="O46" s="329"/>
+      <c r="P46" s="306"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -28746,16 +28754,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="341"/>
-      <c r="AB46" s="312"/>
+      <c r="AA46" s="330"/>
+      <c r="AB46" s="307"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="349"/>
+      <c r="AD46" s="322"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="347"/>
-      <c r="AG46" s="298"/>
+      <c r="AF46" s="361"/>
+      <c r="AG46" s="363"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -28763,111 +28771,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="359" t="str">
+      <c r="A47" s="341" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="316"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="317" t="str">
+      <c r="B47" s="310"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="302" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="317" t="str">
+      <c r="F47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="317" t="str">
+      <c r="G47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="317" t="str">
+      <c r="H47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="317" t="str">
+      <c r="I47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="317" t="str">
+      <c r="J47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="317" t="str">
+      <c r="K47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="317" t="str">
+      <c r="L47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="317" t="str">
+      <c r="M47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="317" t="str">
+      <c r="N47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="369" t="str">
+      <c r="O47" s="304" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="311"/>
-      <c r="Q47" s="317" t="str">
+      <c r="P47" s="306"/>
+      <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="317" t="str">
+      <c r="R47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="317" t="str">
+      <c r="S47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="317" t="str">
+      <c r="T47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="317" t="str">
+      <c r="U47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="317" t="str">
+      <c r="V47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="317" t="str">
+      <c r="W47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="317" t="str">
+      <c r="X47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="317" t="str">
+      <c r="Y47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="317" t="str">
+      <c r="Z47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="369" t="str">
+      <c r="AA47" s="304" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="312"/>
-      <c r="AC47" s="308">
+      <c r="AB47" s="307"/>
+      <c r="AC47" s="371">
         <f>AC6</f>
         <v>40603</v>
       </c>
-      <c r="AD47" s="350"/>
+      <c r="AD47" s="323"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="347"/>
-      <c r="AG47" s="298"/>
+      <c r="AF47" s="361"/>
+      <c r="AG47" s="363"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -28875,45 +28883,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="362" t="s">
+      <c r="A48" s="344" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="363"/>
-      <c r="C48" s="336" t="s">
+      <c r="B48" s="345"/>
+      <c r="C48" s="348" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="337" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="369"/>
-      <c r="P48" s="311"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
-      <c r="V48" s="317"/>
-      <c r="W48" s="317"/>
-      <c r="X48" s="317"/>
-      <c r="Y48" s="317"/>
-      <c r="Z48" s="317"/>
-      <c r="AA48" s="369"/>
-      <c r="AB48" s="312"/>
-      <c r="AC48" s="309"/>
-      <c r="AD48" s="350"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="302"/>
+      <c r="I48" s="302"/>
+      <c r="J48" s="302"/>
+      <c r="K48" s="302"/>
+      <c r="L48" s="302"/>
+      <c r="M48" s="302"/>
+      <c r="N48" s="302"/>
+      <c r="O48" s="304"/>
+      <c r="P48" s="306"/>
+      <c r="Q48" s="302"/>
+      <c r="R48" s="302"/>
+      <c r="S48" s="302"/>
+      <c r="T48" s="302"/>
+      <c r="U48" s="302"/>
+      <c r="V48" s="302"/>
+      <c r="W48" s="302"/>
+      <c r="X48" s="302"/>
+      <c r="Y48" s="302"/>
+      <c r="Z48" s="302"/>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="307"/>
+      <c r="AC48" s="372"/>
+      <c r="AD48" s="323"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="347"/>
-      <c r="AG48" s="298"/>
+      <c r="AF48" s="361"/>
+      <c r="AG48" s="363"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -28921,39 +28929,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="364"/>
-      <c r="B49" s="365"/>
-      <c r="C49" s="337"/>
-      <c r="D49" s="327"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
-      <c r="K49" s="318"/>
-      <c r="L49" s="318"/>
-      <c r="M49" s="318"/>
-      <c r="N49" s="318"/>
-      <c r="O49" s="370"/>
-      <c r="P49" s="314"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="318"/>
-      <c r="T49" s="318"/>
-      <c r="U49" s="318"/>
-      <c r="V49" s="318"/>
-      <c r="W49" s="318"/>
-      <c r="X49" s="318"/>
-      <c r="Y49" s="318"/>
-      <c r="Z49" s="318"/>
-      <c r="AA49" s="370"/>
-      <c r="AB49" s="313"/>
-      <c r="AC49" s="310"/>
-      <c r="AD49" s="351"/>
+      <c r="A49" s="346"/>
+      <c r="B49" s="347"/>
+      <c r="C49" s="349"/>
+      <c r="D49" s="338"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
+      <c r="I49" s="303"/>
+      <c r="J49" s="303"/>
+      <c r="K49" s="303"/>
+      <c r="L49" s="303"/>
+      <c r="M49" s="303"/>
+      <c r="N49" s="303"/>
+      <c r="O49" s="305"/>
+      <c r="P49" s="374"/>
+      <c r="Q49" s="303"/>
+      <c r="R49" s="303"/>
+      <c r="S49" s="303"/>
+      <c r="T49" s="303"/>
+      <c r="U49" s="303"/>
+      <c r="V49" s="303"/>
+      <c r="W49" s="303"/>
+      <c r="X49" s="303"/>
+      <c r="Y49" s="303"/>
+      <c r="Z49" s="303"/>
+      <c r="AA49" s="305"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="373"/>
+      <c r="AD49" s="324"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="348"/>
-      <c r="AG49" s="299"/>
+      <c r="AF49" s="362"/>
+      <c r="AG49" s="364"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -30146,8 +30154,8 @@
         <f>CRS!O66</f>
         <v/>
       </c>
-      <c r="AH66" s="373"/>
-      <c r="AI66" s="371" t="s">
+      <c r="AH66" s="300"/>
+      <c r="AI66" s="298" t="s">
         <v>126</v>
       </c>
     </row>
@@ -30220,8 +30228,8 @@
         <f>CRS!O67</f>
         <v/>
       </c>
-      <c r="AH67" s="374"/>
-      <c r="AI67" s="372"/>
+      <c r="AH67" s="301"/>
+      <c r="AI67" s="299"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -30292,8 +30300,8 @@
         <f>CRS!O68</f>
         <v/>
       </c>
-      <c r="AH68" s="374"/>
-      <c r="AI68" s="372"/>
+      <c r="AH68" s="301"/>
+      <c r="AI68" s="299"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -30364,8 +30372,8 @@
         <f>CRS!O69</f>
         <v/>
       </c>
-      <c r="AH69" s="374"/>
-      <c r="AI69" s="372"/>
+      <c r="AH69" s="301"/>
+      <c r="AI69" s="299"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -30436,8 +30444,8 @@
         <f>CRS!O70</f>
         <v/>
       </c>
-      <c r="AH70" s="374"/>
-      <c r="AI70" s="372"/>
+      <c r="AH70" s="301"/>
+      <c r="AI70" s="299"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -30508,8 +30516,8 @@
         <f>CRS!O71</f>
         <v/>
       </c>
-      <c r="AH71" s="374"/>
-      <c r="AI71" s="372"/>
+      <c r="AH71" s="301"/>
+      <c r="AI71" s="299"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -30580,8 +30588,8 @@
         <f>CRS!O72</f>
         <v/>
       </c>
-      <c r="AH72" s="374"/>
-      <c r="AI72" s="372"/>
+      <c r="AH72" s="301"/>
+      <c r="AI72" s="299"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -30652,8 +30660,8 @@
         <f>CRS!O73</f>
         <v/>
       </c>
-      <c r="AH73" s="374"/>
-      <c r="AI73" s="372"/>
+      <c r="AH73" s="301"/>
+      <c r="AI73" s="299"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -30724,8 +30732,8 @@
         <f>CRS!O74</f>
         <v/>
       </c>
-      <c r="AH74" s="374"/>
-      <c r="AI74" s="372"/>
+      <c r="AH74" s="301"/>
+      <c r="AI74" s="299"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -30796,8 +30804,8 @@
         <f>CRS!O75</f>
         <v/>
       </c>
-      <c r="AH75" s="374"/>
-      <c r="AI75" s="372"/>
+      <c r="AH75" s="301"/>
+      <c r="AI75" s="299"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -30868,8 +30876,8 @@
         <f>CRS!O76</f>
         <v/>
       </c>
-      <c r="AH76" s="374"/>
-      <c r="AI76" s="372"/>
+      <c r="AH76" s="301"/>
+      <c r="AI76" s="299"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -30940,8 +30948,8 @@
         <f>CRS!O77</f>
         <v/>
       </c>
-      <c r="AH77" s="374"/>
-      <c r="AI77" s="372"/>
+      <c r="AH77" s="301"/>
+      <c r="AI77" s="299"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -31012,8 +31020,8 @@
         <f>CRS!O78</f>
         <v/>
       </c>
-      <c r="AH78" s="374"/>
-      <c r="AI78" s="372"/>
+      <c r="AH78" s="301"/>
+      <c r="AI78" s="299"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -31084,8 +31092,8 @@
         <f>CRS!O79</f>
         <v/>
       </c>
-      <c r="AH79" s="374"/>
-      <c r="AI79" s="372"/>
+      <c r="AH79" s="301"/>
+      <c r="AI79" s="299"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -31156,8 +31164,8 @@
         <f>CRS!O80</f>
         <v/>
       </c>
-      <c r="AH80" s="374"/>
-      <c r="AI80" s="372"/>
+      <c r="AH80" s="301"/>
+      <c r="AI80" s="299"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -31437,26 +31445,92 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T2d19Gm7punEibsNJBgdh3ZzUcufk8+PQOuJQC1tA+RpVS+cs4H5fTH4F9aOQxwJS4PY4SJQO4kn/oJxgTi2mQ==" saltValue="yl0eVcUIiysAylQWPtO/Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:AG1"/>
     <mergeCell ref="E2:P2"/>
@@ -31481,92 +31555,26 @@
     <mergeCell ref="AC6:AC8"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R6:R8"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="AC9:AC40 AC50:AC80">
@@ -31670,44 +31678,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="319" t="str">
+      <c r="A1" s="350" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="328" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="325" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="331"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
+      <c r="Z1" s="326"/>
+      <c r="AA1" s="326"/>
+      <c r="AB1" s="326"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
+      <c r="AG1" s="328"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -31715,51 +31723,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="321"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="300" t="str">
+      <c r="A2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="368" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v/>
       </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="315" t="str">
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="370"/>
+      <c r="Q2" s="309" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="352" t="s">
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="310"/>
+      <c r="AA2" s="310"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="353"/>
+      <c r="AD2" s="319"/>
       <c r="AE2" s="375" t="s">
         <v>131</v>
       </c>
-      <c r="AF2" s="347" t="s">
+      <c r="AF2" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="AG2" s="298" t="s">
+      <c r="AG2" s="363" t="s">
         <v>99</v>
       </c>
       <c r="AH2" s="62"/>
@@ -31769,90 +31777,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="345" t="str">
+      <c r="A3" s="339" t="str">
         <f>CRS!A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="303" t="s">
+      <c r="F3" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="303" t="s">
+      <c r="G3" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="303" t="s">
+      <c r="I3" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="303" t="s">
+      <c r="J3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="303" t="s">
+      <c r="K3" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="303" t="s">
+      <c r="M3" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="303" t="s">
+      <c r="N3" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="340" t="s">
+      <c r="O3" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="311" t="s">
+      <c r="P3" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="303" t="s">
+      <c r="Q3" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="303" t="s">
+      <c r="S3" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="303" t="s">
+      <c r="T3" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="303" t="s">
+      <c r="U3" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="303" t="s">
+      <c r="V3" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="303" t="s">
+      <c r="W3" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="303" t="s">
+      <c r="X3" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="303" t="s">
+      <c r="Y3" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" s="303" t="s">
+      <c r="Z3" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" s="340" t="s">
+      <c r="AA3" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="AB3" s="311" t="s">
+      <c r="AB3" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="AC3" s="354"/>
-      <c r="AD3" s="355"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="321"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="347"/>
-      <c r="AG3" s="298"/>
+      <c r="AF3" s="361"/>
+      <c r="AG3" s="363"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -31860,40 +31868,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="323" t="str">
+      <c r="A4" s="334" t="str">
         <f>CRS!A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="325"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>S312</v>
       </c>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="304"/>
-      <c r="L4" s="304"/>
-      <c r="M4" s="304"/>
-      <c r="N4" s="304"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="304"/>
-      <c r="R4" s="304"/>
-      <c r="S4" s="304"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
-      <c r="Z4" s="304"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="312"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="307"/>
       <c r="AC4" s="68" t="s">
         <v>121</v>
       </c>
@@ -31901,8 +31909,8 @@
         <v>122</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="347"/>
-      <c r="AG4" s="298"/>
+      <c r="AF4" s="361"/>
+      <c r="AG4" s="363"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -31910,13 +31918,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="323" t="str">
+      <c r="A5" s="334" t="str">
         <f>CRS!A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -31927,8 +31935,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="312"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="307"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -31939,13 +31947,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="312"/>
+      <c r="AA5" s="330"/>
+      <c r="AB5" s="307"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="349"/>
+      <c r="AD5" s="322"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="347"/>
-      <c r="AG5" s="298"/>
+      <c r="AF5" s="361"/>
+      <c r="AG5" s="363"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -31953,51 +31961,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="359" t="str">
+      <c r="A6" s="341" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="366" t="str">
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="331" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="342" t="str">
+      <c r="P6" s="307"/>
+      <c r="Q6" s="313"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="313"/>
+      <c r="W6" s="313"/>
+      <c r="X6" s="313"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="313"/>
+      <c r="AA6" s="358" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="312"/>
-      <c r="AC6" s="356">
+      <c r="AB6" s="307"/>
+      <c r="AC6" s="365">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="AD6" s="350"/>
+      <c r="AD6" s="323"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="347"/>
-      <c r="AG6" s="298"/>
+      <c r="AF6" s="361"/>
+      <c r="AG6" s="363"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -32005,45 +32013,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="341" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="336" t="s">
+      <c r="B7" s="309"/>
+      <c r="C7" s="348" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="337" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="312"/>
-      <c r="AC7" s="357"/>
-      <c r="AD7" s="350"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="307"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="314"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="314"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
+      <c r="AA7" s="359"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="366"/>
+      <c r="AD7" s="323"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="347"/>
-      <c r="AG7" s="298"/>
+      <c r="AF7" s="361"/>
+      <c r="AG7" s="363"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -32051,39 +32059,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="360"/>
-      <c r="B8" s="361"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="339"/>
-      <c r="K8" s="339"/>
-      <c r="L8" s="339"/>
-      <c r="M8" s="339"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="368"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="307"/>
-      <c r="T8" s="307"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="307"/>
-      <c r="Z8" s="307"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="351"/>
+      <c r="A8" s="342"/>
+      <c r="B8" s="343"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="315"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="315"/>
+      <c r="X8" s="315"/>
+      <c r="Y8" s="315"/>
+      <c r="Z8" s="315"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="308"/>
+      <c r="AC8" s="367"/>
+      <c r="AD8" s="324"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="348"/>
-      <c r="AG8" s="299"/>
+      <c r="AF8" s="362"/>
+      <c r="AG8" s="364"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -33407,8 +33415,8 @@
         <f>CRS!U26</f>
         <v/>
       </c>
-      <c r="AH26" s="373"/>
-      <c r="AI26" s="371" t="s">
+      <c r="AH26" s="300"/>
+      <c r="AI26" s="298" t="s">
         <v>126</v>
       </c>
     </row>
@@ -33481,8 +33489,8 @@
         <f>CRS!U27</f>
         <v/>
       </c>
-      <c r="AH27" s="374"/>
-      <c r="AI27" s="372"/>
+      <c r="AH27" s="301"/>
+      <c r="AI27" s="299"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -33553,8 +33561,8 @@
         <f>CRS!U28</f>
         <v/>
       </c>
-      <c r="AH28" s="374"/>
-      <c r="AI28" s="372"/>
+      <c r="AH28" s="301"/>
+      <c r="AI28" s="299"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -33625,8 +33633,8 @@
         <f>CRS!U29</f>
         <v/>
       </c>
-      <c r="AH29" s="374"/>
-      <c r="AI29" s="372"/>
+      <c r="AH29" s="301"/>
+      <c r="AI29" s="299"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -33697,8 +33705,8 @@
         <f>CRS!U30</f>
         <v/>
       </c>
-      <c r="AH30" s="374"/>
-      <c r="AI30" s="372"/>
+      <c r="AH30" s="301"/>
+      <c r="AI30" s="299"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -33769,8 +33777,8 @@
         <f>CRS!U31</f>
         <v/>
       </c>
-      <c r="AH31" s="374"/>
-      <c r="AI31" s="372"/>
+      <c r="AH31" s="301"/>
+      <c r="AI31" s="299"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -33841,8 +33849,8 @@
         <f>CRS!U32</f>
         <v/>
       </c>
-      <c r="AH32" s="374"/>
-      <c r="AI32" s="372"/>
+      <c r="AH32" s="301"/>
+      <c r="AI32" s="299"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -33913,8 +33921,8 @@
         <f>CRS!U33</f>
         <v/>
       </c>
-      <c r="AH33" s="374"/>
-      <c r="AI33" s="372"/>
+      <c r="AH33" s="301"/>
+      <c r="AI33" s="299"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -33988,8 +33996,8 @@
         <f>CRS!U34</f>
         <v/>
       </c>
-      <c r="AH34" s="374"/>
-      <c r="AI34" s="372"/>
+      <c r="AH34" s="301"/>
+      <c r="AI34" s="299"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -34063,8 +34071,8 @@
         <f>CRS!U35</f>
         <v/>
       </c>
-      <c r="AH35" s="374"/>
-      <c r="AI35" s="372"/>
+      <c r="AH35" s="301"/>
+      <c r="AI35" s="299"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -34138,8 +34146,8 @@
         <f>CRS!U36</f>
         <v/>
       </c>
-      <c r="AH36" s="374"/>
-      <c r="AI36" s="372"/>
+      <c r="AH36" s="301"/>
+      <c r="AI36" s="299"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -34213,8 +34221,8 @@
         <f>CRS!U37</f>
         <v/>
       </c>
-      <c r="AH37" s="374"/>
-      <c r="AI37" s="372"/>
+      <c r="AH37" s="301"/>
+      <c r="AI37" s="299"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -34288,8 +34296,8 @@
         <f>CRS!U38</f>
         <v/>
       </c>
-      <c r="AH38" s="374"/>
-      <c r="AI38" s="372"/>
+      <c r="AH38" s="301"/>
+      <c r="AI38" s="299"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -34363,8 +34371,8 @@
         <f>CRS!U39</f>
         <v/>
       </c>
-      <c r="AH39" s="374"/>
-      <c r="AI39" s="372"/>
+      <c r="AH39" s="301"/>
+      <c r="AI39" s="299"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -34438,8 +34446,8 @@
         <f>CRS!U40</f>
         <v/>
       </c>
-      <c r="AH40" s="374"/>
-      <c r="AI40" s="372"/>
+      <c r="AH40" s="301"/>
+      <c r="AI40" s="299"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -34485,44 +34493,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332" t="str">
+      <c r="A42" s="354" t="str">
         <f>A1</f>
         <v>CITCS 2B  ITE3</v>
       </c>
-      <c r="B42" s="333"/>
-      <c r="C42" s="333"/>
-      <c r="D42" s="333"/>
-      <c r="E42" s="328" t="s">
+      <c r="B42" s="355"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="325" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="328"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="329"/>
-      <c r="O42" s="329"/>
-      <c r="P42" s="329"/>
-      <c r="Q42" s="329"/>
-      <c r="R42" s="329"/>
-      <c r="S42" s="329"/>
-      <c r="T42" s="329"/>
-      <c r="U42" s="329"/>
-      <c r="V42" s="329"/>
-      <c r="W42" s="329"/>
-      <c r="X42" s="329"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="329"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="329"/>
-      <c r="AC42" s="330"/>
-      <c r="AD42" s="330"/>
-      <c r="AE42" s="330"/>
-      <c r="AF42" s="330"/>
-      <c r="AG42" s="331"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="325"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="326"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="326"/>
+      <c r="R42" s="326"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="326"/>
+      <c r="Z42" s="326"/>
+      <c r="AA42" s="326"/>
+      <c r="AB42" s="326"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="327"/>
+      <c r="AF42" s="327"/>
+      <c r="AG42" s="328"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -34530,52 +34538,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="334"/>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="315" t="str">
+      <c r="A43" s="356"/>
+      <c r="B43" s="357"/>
+      <c r="C43" s="357"/>
+      <c r="D43" s="357"/>
+      <c r="E43" s="309" t="str">
         <f>E2</f>
         <v/>
       </c>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="316"/>
-      <c r="L43" s="316"/>
-      <c r="M43" s="316"/>
-      <c r="N43" s="316"/>
-      <c r="O43" s="316"/>
-      <c r="P43" s="304"/>
-      <c r="Q43" s="315" t="str">
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="310"/>
+      <c r="M43" s="310"/>
+      <c r="N43" s="310"/>
+      <c r="O43" s="310"/>
+      <c r="P43" s="311"/>
+      <c r="Q43" s="309" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="316"/>
-      <c r="S43" s="316"/>
-      <c r="T43" s="316"/>
-      <c r="U43" s="316"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="316"/>
-      <c r="X43" s="316"/>
-      <c r="Y43" s="316"/>
-      <c r="Z43" s="316"/>
-      <c r="AA43" s="316"/>
-      <c r="AB43" s="304"/>
-      <c r="AC43" s="352" t="s">
+      <c r="R43" s="310"/>
+      <c r="S43" s="310"/>
+      <c r="T43" s="310"/>
+      <c r="U43" s="310"/>
+      <c r="V43" s="310"/>
+      <c r="W43" s="310"/>
+      <c r="X43" s="310"/>
+      <c r="Y43" s="310"/>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="311"/>
+      <c r="AC43" s="318" t="s">
         <v>97</v>
       </c>
-      <c r="AD43" s="353"/>
+      <c r="AD43" s="319"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="347" t="s">
+      <c r="AF43" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="AG43" s="298" t="s">
+      <c r="AG43" s="363" t="s">
         <v>99</v>
       </c>
       <c r="AH43" s="62"/>
@@ -34585,90 +34593,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="345" t="str">
+      <c r="A44" s="339" t="str">
         <f>A3</f>
         <v>WEB APPLICATION DEVELOPMENT</v>
       </c>
-      <c r="B44" s="346"/>
-      <c r="C44" s="346"/>
-      <c r="D44" s="346"/>
-      <c r="E44" s="303" t="s">
+      <c r="B44" s="340"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="303" t="s">
+      <c r="F44" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="303" t="s">
+      <c r="G44" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="303" t="s">
+      <c r="H44" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="303" t="s">
+      <c r="I44" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="303" t="s">
+      <c r="J44" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="K44" s="303" t="s">
+      <c r="K44" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="L44" s="303" t="s">
+      <c r="L44" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="M44" s="303" t="s">
+      <c r="M44" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="N44" s="303" t="s">
+      <c r="N44" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="340" t="s">
+      <c r="O44" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="P44" s="311" t="s">
+      <c r="P44" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="Q44" s="303" t="s">
+      <c r="Q44" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="R44" s="303" t="s">
+      <c r="R44" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="S44" s="303" t="s">
+      <c r="S44" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="T44" s="303" t="s">
+      <c r="T44" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="U44" s="303" t="s">
+      <c r="U44" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="V44" s="303" t="s">
+      <c r="V44" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="W44" s="303" t="s">
+      <c r="W44" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="X44" s="303" t="s">
+      <c r="X44" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="Y44" s="303" t="s">
+      <c r="Y44" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Z44" s="303" t="s">
+      <c r="Z44" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="AA44" s="340" t="s">
+      <c r="AA44" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="AB44" s="311" t="s">
+      <c r="AB44" s="306" t="s">
         <v>110</v>
       </c>
-      <c r="AC44" s="354"/>
-      <c r="AD44" s="355"/>
+      <c r="AC44" s="320"/>
+      <c r="AD44" s="321"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="347"/>
-      <c r="AG44" s="298"/>
+      <c r="AF44" s="361"/>
+      <c r="AG44" s="363"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -34676,40 +34684,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="323" t="str">
+      <c r="A45" s="334" t="str">
         <f>A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="B45" s="324"/>
-      <c r="C45" s="325"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="336"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>S312</v>
       </c>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
-      <c r="I45" s="303"/>
-      <c r="J45" s="303"/>
-      <c r="K45" s="303"/>
-      <c r="L45" s="303"/>
-      <c r="M45" s="303"/>
-      <c r="N45" s="303"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="311"/>
-      <c r="Q45" s="304"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="304"/>
-      <c r="T45" s="304"/>
-      <c r="U45" s="303"/>
-      <c r="V45" s="303"/>
-      <c r="W45" s="304"/>
-      <c r="X45" s="304"/>
-      <c r="Y45" s="304"/>
-      <c r="Z45" s="304"/>
-      <c r="AA45" s="341"/>
-      <c r="AB45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
+      <c r="O45" s="329"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="311"/>
+      <c r="R45" s="311"/>
+      <c r="S45" s="311"/>
+      <c r="T45" s="311"/>
+      <c r="U45" s="312"/>
+      <c r="V45" s="312"/>
+      <c r="W45" s="311"/>
+      <c r="X45" s="311"/>
+      <c r="Y45" s="311"/>
+      <c r="Z45" s="311"/>
+      <c r="AA45" s="330"/>
+      <c r="AB45" s="307"/>
       <c r="AC45" s="68" t="s">
         <v>121</v>
       </c>
@@ -34717,8 +34725,8 @@
         <v>122</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="347"/>
-      <c r="AG45" s="298"/>
+      <c r="AF45" s="361"/>
+      <c r="AG45" s="363"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -34726,13 +34734,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="323" t="str">
+      <c r="A46" s="334" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="324"/>
-      <c r="C46" s="325"/>
-      <c r="D46" s="325"/>
+      <c r="B46" s="335"/>
+      <c r="C46" s="336"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -34773,8 +34781,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="340"/>
-      <c r="P46" s="311"/>
+      <c r="O46" s="329"/>
+      <c r="P46" s="306"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -34815,16 +34823,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="341"/>
-      <c r="AB46" s="312"/>
+      <c r="AA46" s="330"/>
+      <c r="AB46" s="307"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="349"/>
+      <c r="AD46" s="322"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="347"/>
-      <c r="AG46" s="298"/>
+      <c r="AF46" s="361"/>
+      <c r="AG46" s="363"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -34832,111 +34840,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="359" t="str">
+      <c r="A47" s="341" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="316"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="317" t="str">
+      <c r="B47" s="310"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="302" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="317" t="str">
+      <c r="F47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="317" t="str">
+      <c r="G47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="317" t="str">
+      <c r="H47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="317" t="str">
+      <c r="I47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="317" t="str">
+      <c r="J47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="317" t="str">
+      <c r="K47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="317" t="str">
+      <c r="L47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="317" t="str">
+      <c r="M47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="317" t="str">
+      <c r="N47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="369" t="str">
+      <c r="O47" s="304" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="311"/>
-      <c r="Q47" s="317" t="str">
+      <c r="P47" s="306"/>
+      <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="317" t="str">
+      <c r="R47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="317" t="str">
+      <c r="S47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="317" t="str">
+      <c r="T47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="317" t="str">
+      <c r="U47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="317" t="str">
+      <c r="V47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="317" t="str">
+      <c r="W47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="317" t="str">
+      <c r="X47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="317" t="str">
+      <c r="Y47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="317" t="str">
+      <c r="Z47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="369" t="str">
+      <c r="AA47" s="304" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="312"/>
-      <c r="AC47" s="308">
+      <c r="AB47" s="307"/>
+      <c r="AC47" s="371">
         <f>AC6</f>
         <v>40634</v>
       </c>
-      <c r="AD47" s="350"/>
+      <c r="AD47" s="323"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="347"/>
-      <c r="AG47" s="298"/>
+      <c r="AF47" s="361"/>
+      <c r="AG47" s="363"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -34944,45 +34952,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="362" t="s">
+      <c r="A48" s="344" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="363"/>
-      <c r="C48" s="336" t="s">
+      <c r="B48" s="345"/>
+      <c r="C48" s="348" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="337" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="369"/>
-      <c r="P48" s="311"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
-      <c r="V48" s="317"/>
-      <c r="W48" s="317"/>
-      <c r="X48" s="317"/>
-      <c r="Y48" s="317"/>
-      <c r="Z48" s="317"/>
-      <c r="AA48" s="369"/>
-      <c r="AB48" s="312"/>
-      <c r="AC48" s="309"/>
-      <c r="AD48" s="350"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="302"/>
+      <c r="I48" s="302"/>
+      <c r="J48" s="302"/>
+      <c r="K48" s="302"/>
+      <c r="L48" s="302"/>
+      <c r="M48" s="302"/>
+      <c r="N48" s="302"/>
+      <c r="O48" s="304"/>
+      <c r="P48" s="306"/>
+      <c r="Q48" s="302"/>
+      <c r="R48" s="302"/>
+      <c r="S48" s="302"/>
+      <c r="T48" s="302"/>
+      <c r="U48" s="302"/>
+      <c r="V48" s="302"/>
+      <c r="W48" s="302"/>
+      <c r="X48" s="302"/>
+      <c r="Y48" s="302"/>
+      <c r="Z48" s="302"/>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="307"/>
+      <c r="AC48" s="372"/>
+      <c r="AD48" s="323"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="347"/>
-      <c r="AG48" s="298"/>
+      <c r="AF48" s="361"/>
+      <c r="AG48" s="363"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -34990,39 +34998,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="364"/>
-      <c r="B49" s="365"/>
-      <c r="C49" s="337"/>
-      <c r="D49" s="327"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
-      <c r="K49" s="318"/>
-      <c r="L49" s="318"/>
-      <c r="M49" s="318"/>
-      <c r="N49" s="318"/>
-      <c r="O49" s="370"/>
-      <c r="P49" s="314"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="318"/>
-      <c r="T49" s="318"/>
-      <c r="U49" s="318"/>
-      <c r="V49" s="318"/>
-      <c r="W49" s="318"/>
-      <c r="X49" s="318"/>
-      <c r="Y49" s="318"/>
-      <c r="Z49" s="318"/>
-      <c r="AA49" s="370"/>
-      <c r="AB49" s="313"/>
-      <c r="AC49" s="310"/>
-      <c r="AD49" s="351"/>
+      <c r="A49" s="346"/>
+      <c r="B49" s="347"/>
+      <c r="C49" s="349"/>
+      <c r="D49" s="338"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
+      <c r="I49" s="303"/>
+      <c r="J49" s="303"/>
+      <c r="K49" s="303"/>
+      <c r="L49" s="303"/>
+      <c r="M49" s="303"/>
+      <c r="N49" s="303"/>
+      <c r="O49" s="305"/>
+      <c r="P49" s="374"/>
+      <c r="Q49" s="303"/>
+      <c r="R49" s="303"/>
+      <c r="S49" s="303"/>
+      <c r="T49" s="303"/>
+      <c r="U49" s="303"/>
+      <c r="V49" s="303"/>
+      <c r="W49" s="303"/>
+      <c r="X49" s="303"/>
+      <c r="Y49" s="303"/>
+      <c r="Z49" s="303"/>
+      <c r="AA49" s="305"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="373"/>
+      <c r="AD49" s="324"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="348"/>
-      <c r="AG49" s="299"/>
+      <c r="AF49" s="362"/>
+      <c r="AG49" s="364"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -36215,8 +36223,8 @@
         <f>CRS!U66</f>
         <v/>
       </c>
-      <c r="AH66" s="373"/>
-      <c r="AI66" s="371" t="s">
+      <c r="AH66" s="300"/>
+      <c r="AI66" s="298" t="s">
         <v>126</v>
       </c>
     </row>
@@ -36289,8 +36297,8 @@
         <f>CRS!U67</f>
         <v/>
       </c>
-      <c r="AH67" s="374"/>
-      <c r="AI67" s="372"/>
+      <c r="AH67" s="301"/>
+      <c r="AI67" s="299"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -36361,8 +36369,8 @@
         <f>CRS!U68</f>
         <v/>
       </c>
-      <c r="AH68" s="374"/>
-      <c r="AI68" s="372"/>
+      <c r="AH68" s="301"/>
+      <c r="AI68" s="299"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -36433,8 +36441,8 @@
         <f>CRS!U69</f>
         <v/>
       </c>
-      <c r="AH69" s="374"/>
-      <c r="AI69" s="372"/>
+      <c r="AH69" s="301"/>
+      <c r="AI69" s="299"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -36505,8 +36513,8 @@
         <f>CRS!U70</f>
         <v/>
       </c>
-      <c r="AH70" s="374"/>
-      <c r="AI70" s="372"/>
+      <c r="AH70" s="301"/>
+      <c r="AI70" s="299"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -36577,8 +36585,8 @@
         <f>CRS!U71</f>
         <v/>
       </c>
-      <c r="AH71" s="374"/>
-      <c r="AI71" s="372"/>
+      <c r="AH71" s="301"/>
+      <c r="AI71" s="299"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -36649,8 +36657,8 @@
         <f>CRS!U72</f>
         <v/>
       </c>
-      <c r="AH72" s="374"/>
-      <c r="AI72" s="372"/>
+      <c r="AH72" s="301"/>
+      <c r="AI72" s="299"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -36721,8 +36729,8 @@
         <f>CRS!U73</f>
         <v/>
       </c>
-      <c r="AH73" s="374"/>
-      <c r="AI73" s="372"/>
+      <c r="AH73" s="301"/>
+      <c r="AI73" s="299"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -36793,8 +36801,8 @@
         <f>CRS!U74</f>
         <v/>
       </c>
-      <c r="AH74" s="374"/>
-      <c r="AI74" s="372"/>
+      <c r="AH74" s="301"/>
+      <c r="AI74" s="299"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -36865,8 +36873,8 @@
         <f>CRS!U75</f>
         <v/>
       </c>
-      <c r="AH75" s="374"/>
-      <c r="AI75" s="372"/>
+      <c r="AH75" s="301"/>
+      <c r="AI75" s="299"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -36937,8 +36945,8 @@
         <f>CRS!U76</f>
         <v/>
       </c>
-      <c r="AH76" s="374"/>
-      <c r="AI76" s="372"/>
+      <c r="AH76" s="301"/>
+      <c r="AI76" s="299"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -37009,8 +37017,8 @@
         <f>CRS!U77</f>
         <v/>
       </c>
-      <c r="AH77" s="374"/>
-      <c r="AI77" s="372"/>
+      <c r="AH77" s="301"/>
+      <c r="AI77" s="299"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -37081,8 +37089,8 @@
         <f>CRS!U78</f>
         <v/>
       </c>
-      <c r="AH78" s="374"/>
-      <c r="AI78" s="372"/>
+      <c r="AH78" s="301"/>
+      <c r="AI78" s="299"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -37153,8 +37161,8 @@
         <f>CRS!U79</f>
         <v/>
       </c>
-      <c r="AH79" s="374"/>
-      <c r="AI79" s="372"/>
+      <c r="AH79" s="301"/>
+      <c r="AI79" s="299"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -37225,8 +37233,8 @@
         <f>CRS!U80</f>
         <v/>
       </c>
-      <c r="AH80" s="374"/>
-      <c r="AI80" s="372"/>
+      <c r="AH80" s="301"/>
+      <c r="AI80" s="299"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -37506,6 +37514,112 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="r9GU55Q6M2zTlwa014WpkfKiky8Sb8v4KLpKizRfX9cdBMIz1ysRsotcKQrpvBSarNV9EJ4HGzIGqk6p3/Mr3A==" saltValue="54XUZU5JGZ6/eLh4J4iIXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="AE2:AE8"/>
     <mergeCell ref="AF2:AF8"/>
     <mergeCell ref="AG2:AG8"/>
@@ -37530,112 +37644,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="AD46:AD49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -37795,55 +37803,55 @@
         <f>'INITIAL INPUT'!D12</f>
         <v>CITCS 2B</v>
       </c>
-      <c r="C11" s="385" t="str">
+      <c r="C11" s="381" t="str">
         <f>'INITIAL INPUT'!G12</f>
         <v>ITE3</v>
       </c>
-      <c r="D11" s="386"/>
-      <c r="E11" s="386"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="382"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="387" t="str">
+      <c r="G11" s="383" t="str">
         <f>CRS!A4</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="H11" s="388"/>
-      <c r="I11" s="388"/>
-      <c r="J11" s="388"/>
-      <c r="K11" s="388"/>
-      <c r="L11" s="388"/>
-      <c r="M11" s="388"/>
+      <c r="H11" s="384"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="384"/>
+      <c r="K11" s="384"/>
+      <c r="L11" s="384"/>
+      <c r="M11" s="384"/>
       <c r="N11" s="164"/>
-      <c r="O11" s="389" t="str">
+      <c r="O11" s="385" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester")</f>
         <v>2ND Trimester</v>
       </c>
-      <c r="P11" s="386"/>
+      <c r="P11" s="382"/>
     </row>
     <row r="12" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="379" t="s">
+      <c r="C12" s="386" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="372"/>
-      <c r="E12" s="372"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
       <c r="F12" s="163"/>
-      <c r="G12" s="380" t="s">
+      <c r="G12" s="387" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="372"/>
-      <c r="I12" s="372"/>
-      <c r="J12" s="372"/>
-      <c r="K12" s="372"/>
-      <c r="L12" s="372"/>
-      <c r="M12" s="372"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="381" t="str">
+      <c r="O12" s="388" t="str">
         <f>CONCATENATE("SY ",'INITIAL INPUT'!D16)</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P12" s="382"/>
+      <c r="P12" s="389"/>
       <c r="Q12" s="128"/>
       <c r="R12" s="128"/>
       <c r="S12" s="128"/>
@@ -37921,10 +37929,10 @@
         <v>144</v>
       </c>
       <c r="N14" s="136"/>
-      <c r="O14" s="383" t="s">
+      <c r="O14" s="379" t="s">
         <v>132</v>
       </c>
-      <c r="P14" s="384"/>
+      <c r="P14" s="380"/>
       <c r="Q14" s="137"/>
       <c r="R14" s="137"/>
       <c r="S14" s="137"/>
@@ -37966,7 +37974,7 @@
       <c r="H15" s="133"/>
       <c r="I15" s="144">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="144" t="str">
@@ -38910,7 +38918,7 @@
       <c r="H31" s="133"/>
       <c r="I31" s="144">
         <f>IF(CRS!I25="","",CRS!I25)</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="144" t="str">
@@ -40196,55 +40204,55 @@
         <f>A11</f>
         <v>CITCS 2B</v>
       </c>
-      <c r="C72" s="385" t="str">
+      <c r="C72" s="381" t="str">
         <f>C11</f>
         <v>ITE3</v>
       </c>
-      <c r="D72" s="386"/>
-      <c r="E72" s="386"/>
+      <c r="D72" s="382"/>
+      <c r="E72" s="382"/>
       <c r="F72" s="163"/>
-      <c r="G72" s="387" t="str">
+      <c r="G72" s="383" t="str">
         <f>G11</f>
         <v>MW 5:30PM-6:45PM  TTHSAT 5:30PM-6:45PM</v>
       </c>
-      <c r="H72" s="388"/>
-      <c r="I72" s="388"/>
-      <c r="J72" s="388"/>
-      <c r="K72" s="388"/>
-      <c r="L72" s="388"/>
-      <c r="M72" s="388"/>
+      <c r="H72" s="384"/>
+      <c r="I72" s="384"/>
+      <c r="J72" s="384"/>
+      <c r="K72" s="384"/>
+      <c r="L72" s="384"/>
+      <c r="M72" s="384"/>
       <c r="N72" s="164"/>
-      <c r="O72" s="389" t="str">
+      <c r="O72" s="385" t="str">
         <f>O11</f>
         <v>2ND Trimester</v>
       </c>
-      <c r="P72" s="386"/>
+      <c r="P72" s="382"/>
     </row>
     <row r="73" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="379" t="s">
+      <c r="C73" s="386" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="372"/>
-      <c r="E73" s="372"/>
+      <c r="D73" s="299"/>
+      <c r="E73" s="299"/>
       <c r="F73" s="163"/>
-      <c r="G73" s="380" t="s">
+      <c r="G73" s="387" t="s">
         <v>140</v>
       </c>
-      <c r="H73" s="372"/>
-      <c r="I73" s="372"/>
-      <c r="J73" s="372"/>
-      <c r="K73" s="372"/>
-      <c r="L73" s="372"/>
-      <c r="M73" s="372"/>
+      <c r="H73" s="299"/>
+      <c r="I73" s="299"/>
+      <c r="J73" s="299"/>
+      <c r="K73" s="299"/>
+      <c r="L73" s="299"/>
+      <c r="M73" s="299"/>
       <c r="N73" s="106"/>
-      <c r="O73" s="381" t="str">
+      <c r="O73" s="388" t="str">
         <f>O12</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P73" s="382"/>
+      <c r="P73" s="389"/>
       <c r="Q73" s="128"/>
       <c r="R73" s="128"/>
       <c r="S73" s="128"/>
@@ -40322,10 +40330,10 @@
         <v>144</v>
       </c>
       <c r="N75" s="136"/>
-      <c r="O75" s="383" t="s">
+      <c r="O75" s="379" t="s">
         <v>132</v>
       </c>
-      <c r="P75" s="384"/>
+      <c r="P75" s="380"/>
       <c r="Q75" s="137"/>
       <c r="R75" s="137"/>
       <c r="S75" s="137"/>
@@ -42683,18 +42691,60 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rr4KBu2AEFa/KySpnCO0Ck38T/nOom3i2FxuhAYlP4JgnWP0E17tEsMn8PpgA+OHXpLmFfOJ659NttGsaGyyCQ==" saltValue="bJvSSGehZYl6UeN9dD1Evw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
@@ -42707,60 +42757,18 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="O101:P101"/>
-    <mergeCell ref="O102:P102"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:N46 N76:N107">
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="notBetween">
